--- a/outputs-HGR-r202/test-f__Burkholderiaceae_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-f__Burkholderiaceae_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
   <si>
     <t>Row</t>
   </si>
@@ -40,21 +40,36 @@
     <t>even_MAG-GUT12361.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT12482.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT12794.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT12944.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT12991.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT13170.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT13480.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT13637.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT13816.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT1384.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT13881.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT13955.fa</t>
   </si>
   <si>
@@ -70,9 +85,27 @@
     <t>even_MAG-GUT14250.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT14532.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT14572.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT14827.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT15246.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT15625.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT16149.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT16156.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT16625.fa</t>
   </si>
   <si>
@@ -82,6 +115,9 @@
     <t>even_MAG-GUT16984.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT17271.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT17598.fa</t>
   </si>
   <si>
@@ -91,15 +127,30 @@
     <t>even_MAG-GUT18024.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT18195.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT18210.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT18312.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT18361.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT18974.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT19408.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT19561.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT19592.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT19599.fa</t>
   </si>
   <si>
@@ -124,6 +175,9 @@
     <t>even_MAG-GUT24606.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT24616.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT24657.fa</t>
   </si>
   <si>
@@ -145,6 +199,12 @@
     <t>even_MAG-GUT25055.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT25075.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT25223.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT25263.fa</t>
   </si>
   <si>
@@ -163,9 +223,15 @@
     <t>even_MAG-GUT29963.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT30085.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT31546.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT31872.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT32354.fa</t>
   </si>
   <si>
@@ -196,6 +262,9 @@
     <t>even_MAG-GUT36009.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT36148.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT36218.fa</t>
   </si>
   <si>
@@ -211,18 +280,30 @@
     <t>even_MAG-GUT37961.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT38016.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT38856.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT38999.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT39108.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT39136.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT39174.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT3922.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT39245.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT39460.fa</t>
   </si>
   <si>
@@ -238,6 +319,9 @@
     <t>even_MAG-GUT43227.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT43254.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT4338.fa</t>
   </si>
   <si>
@@ -295,15 +379,27 @@
     <t>even_MAG-GUT57416.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT57726.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT58179.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT58214.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT60374.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT61409.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT61637.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT61735.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT61794.fa</t>
   </si>
   <si>
@@ -343,6 +439,9 @@
     <t>even_MAG-GUT68996.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT69662.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT7016.fa</t>
   </si>
   <si>
@@ -373,16 +472,34 @@
     <t>even_MAG-GUT78371.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT80384.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT80449.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT80685.fa</t>
   </si>
   <si>
+    <t>even_MAG-GUT80720.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT80804.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT81029.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT81145.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT81204.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT81432.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT81523.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT82115.fa</t>
@@ -499,7 +616,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L135"/>
+  <dimension ref="A1:L174"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="true"/>
@@ -521,37 +638,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>137</v>
+        <v>176</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2">
@@ -825,34 +942,34 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.00082970698255536675</v>
+        <v>0.00020422395715835205</v>
       </c>
       <c r="C9">
-        <v>3.1666758809746409e-06</v>
+        <v>2.3392925314931372e-05</v>
       </c>
       <c r="D9">
-        <v>0.15525866450313242</v>
+        <v>0.0058970612227657801</v>
       </c>
       <c r="E9">
-        <v>4.0815694929287564e-14</v>
+        <v>3.7301120227637909e-14</v>
       </c>
       <c r="F9">
-        <v>7.4451353526237573e-09</v>
+        <v>1.753483957704581e-08</v>
       </c>
       <c r="G9">
-        <v>0.00082648005815142084</v>
+        <v>0.00085612684937772421</v>
       </c>
       <c r="H9">
-        <v>0.001210056599396049</v>
+        <v>0.00051323590031249818</v>
       </c>
       <c r="I9">
-        <v>0.00014974962438404964</v>
+        <v>3.3514099329360318e-06</v>
       </c>
       <c r="J9">
-        <v>0.841721902043024</v>
+        <v>0.99250258543108094</v>
       </c>
       <c r="K9">
-        <v>2.6606829956866401e-07</v>
+        <v>4.7691799158950661e-09</v>
       </c>
       <c r="L9">
         <v>9</v>
@@ -863,37 +980,37 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.00015216450526686141</v>
+        <v>0.00082970698255536675</v>
       </c>
       <c r="C10">
-        <v>1.1605823708310798e-05</v>
+        <v>3.1666758809746409e-06</v>
       </c>
       <c r="D10">
-        <v>7.5091949887594558e-08</v>
+        <v>0.15525866450313242</v>
       </c>
       <c r="E10">
-        <v>0.99378425876449628</v>
+        <v>4.0815694929287564e-14</v>
       </c>
       <c r="F10">
-        <v>0.00030727438433621076</v>
+        <v>7.4451353526237573e-09</v>
       </c>
       <c r="G10">
-        <v>0.00029124458083477656</v>
+        <v>0.00082648005815142084</v>
       </c>
       <c r="H10">
-        <v>1.1099375000572933e-06</v>
+        <v>0.001210056599396049</v>
       </c>
       <c r="I10">
-        <v>1.412057794006992e-06</v>
+        <v>0.00014974962438404964</v>
       </c>
       <c r="J10">
-        <v>0.0054508548264002189</v>
+        <v>0.841721902043024</v>
       </c>
       <c r="K10">
-        <v>2.7713311587941493e-11</v>
+        <v>2.6606829956866401e-07</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -901,34 +1018,34 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.00013078324255594821</v>
+        <v>0.0010741763507498749</v>
       </c>
       <c r="C11">
-        <v>1.7642291681732991e-05</v>
+        <v>1.3210834545479328e-05</v>
       </c>
       <c r="D11">
-        <v>0.0076158728503055084</v>
+        <v>0.038096462578451389</v>
       </c>
       <c r="E11">
-        <v>2.2200629614979329e-14</v>
+        <v>8.0170298335985538e-14</v>
       </c>
       <c r="F11">
-        <v>1.6242816324019643e-12</v>
+        <v>1.1677207825039506e-11</v>
       </c>
       <c r="G11">
-        <v>0.00020729588030697247</v>
+        <v>0.000366469542964289</v>
       </c>
       <c r="H11">
-        <v>0.00053639819551940351</v>
+        <v>0.00053831602818252527</v>
       </c>
       <c r="I11">
-        <v>2.8282235817087172e-05</v>
+        <v>0.00084843195941928596</v>
       </c>
       <c r="J11">
-        <v>0.99146368414703967</v>
+        <v>0.95905764363132484</v>
       </c>
       <c r="K11">
-        <v>4.1155127103289088e-08</v>
+        <v>5.2890626048382155e-06</v>
       </c>
       <c r="L11">
         <v>9</v>
@@ -939,34 +1056,34 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.00014049823670180672</v>
+        <v>0.00015216450526686141</v>
       </c>
       <c r="C12">
-        <v>8.2734652901059559e-06</v>
+        <v>1.1605823708310798e-05</v>
       </c>
       <c r="D12">
-        <v>1.0374601781671873e-07</v>
+        <v>7.5091949887594558e-08</v>
       </c>
       <c r="E12">
-        <v>0.99414522996593224</v>
+        <v>0.99378425876449628</v>
       </c>
       <c r="F12">
-        <v>4.7911313427358499e-05</v>
+        <v>0.00030727438433621076</v>
       </c>
       <c r="G12">
-        <v>0.0004034899683141907</v>
+        <v>0.00029124458083477656</v>
       </c>
       <c r="H12">
-        <v>6.5408366650885647e-07</v>
+        <v>1.1099375000572933e-06</v>
       </c>
       <c r="I12">
-        <v>6.3624425720327024e-06</v>
+        <v>1.412057794006992e-06</v>
       </c>
       <c r="J12">
-        <v>0.005247476608644653</v>
+        <v>0.0054508548264002189</v>
       </c>
       <c r="K12">
-        <v>1.6943346447440254e-10</v>
+        <v>2.7713311587941493e-11</v>
       </c>
       <c r="L12">
         <v>4</v>
@@ -977,37 +1094,37 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.0030062125786482654</v>
+        <v>0.00022101088652799948</v>
       </c>
       <c r="C13">
-        <v>0.93950030249944505</v>
+        <v>3.7997085784513231e-06</v>
       </c>
       <c r="D13">
-        <v>0.002891148482232203</v>
+        <v>1.2510926588506694e-08</v>
       </c>
       <c r="E13">
-        <v>6.5055511085838539e-14</v>
+        <v>0.99565497068671727</v>
       </c>
       <c r="F13">
-        <v>4.165017961167393e-12</v>
+        <v>0.0015439035563045967</v>
       </c>
       <c r="G13">
-        <v>0.018739389587932257</v>
+        <v>0.00034087347994701014</v>
       </c>
       <c r="H13">
-        <v>7.1890812432720591e-07</v>
+        <v>2.8211431789485459e-07</v>
       </c>
       <c r="I13">
-        <v>7.3117026067272889e-06</v>
+        <v>3.1412538479421463e-05</v>
       </c>
       <c r="J13">
-        <v>3.2477546572686166e-05</v>
+        <v>0.0022037344539090915</v>
       </c>
       <c r="K13">
-        <v>0.035822438690208409</v>
+        <v>6.4291813531087692e-11</v>
       </c>
       <c r="L13">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -1015,37 +1132,37 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.00065616447387609948</v>
+        <v>0.00013078324255594821</v>
       </c>
       <c r="C14">
-        <v>0.00010451313806698542</v>
+        <v>1.7642291681732991e-05</v>
       </c>
       <c r="D14">
-        <v>2.2089921797879118e-05</v>
+        <v>0.0076158728503055084</v>
       </c>
       <c r="E14">
-        <v>2.2199577977771622e-14</v>
+        <v>2.2200629614979329e-14</v>
       </c>
       <c r="F14">
-        <v>2.2199577977771622e-14</v>
+        <v>1.6242816324019643e-12</v>
       </c>
       <c r="G14">
-        <v>0.00014848110866759137</v>
+        <v>0.00020729588030697247</v>
       </c>
       <c r="H14">
-        <v>0.97955097110083433</v>
+        <v>0.00053639819551940351</v>
       </c>
       <c r="I14">
-        <v>1.2129869916983719e-06</v>
+        <v>2.8282235817087172e-05</v>
       </c>
       <c r="J14">
-        <v>0.019516265176481706</v>
+        <v>0.99146368414703967</v>
       </c>
       <c r="K14">
-        <v>3.0209323918407717e-07</v>
+        <v>4.1155127103289088e-08</v>
       </c>
       <c r="L14">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1053,34 +1170,34 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.00016757099252984498</v>
+        <v>0.00014049823670180672</v>
       </c>
       <c r="C15">
-        <v>1.0123742730650333e-05</v>
+        <v>8.2734652901059559e-06</v>
       </c>
       <c r="D15">
-        <v>1.6725962512589586e-08</v>
+        <v>1.0374601781671873e-07</v>
       </c>
       <c r="E15">
-        <v>0.99187925918287811</v>
+        <v>0.99414522996593224</v>
       </c>
       <c r="F15">
-        <v>0.00022634104987043885</v>
+        <v>4.7911313427358499e-05</v>
       </c>
       <c r="G15">
-        <v>0.00027590297163218461</v>
+        <v>0.0004034899683141907</v>
       </c>
       <c r="H15">
-        <v>1.2278255613594501e-06</v>
+        <v>6.5408366650885647e-07</v>
       </c>
       <c r="I15">
-        <v>3.0963283252423582e-06</v>
+        <v>6.3624425720327024e-06</v>
       </c>
       <c r="J15">
-        <v>0.0074364611253577998</v>
+        <v>0.005247476608644653</v>
       </c>
       <c r="K15">
-        <v>5.5151991476033819e-11</v>
+        <v>1.6943346447440254e-10</v>
       </c>
       <c r="L15">
         <v>4</v>
@@ -1091,37 +1208,37 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.00014049823670180672</v>
+        <v>0.00017371653694846288</v>
       </c>
       <c r="C16">
-        <v>8.2734652901059559e-06</v>
+        <v>7.7726771743839716e-06</v>
       </c>
       <c r="D16">
-        <v>1.0374601781671873e-07</v>
+        <v>0.0067735372119074305</v>
       </c>
       <c r="E16">
-        <v>0.99414522996593224</v>
+        <v>3.1985011611026452e-14</v>
       </c>
       <c r="F16">
-        <v>4.7911313427358499e-05</v>
+        <v>2.6525082821937449e-08</v>
       </c>
       <c r="G16">
-        <v>0.0004034899683141907</v>
+        <v>0.00058584294631285213</v>
       </c>
       <c r="H16">
-        <v>6.5408366650885647e-07</v>
+        <v>0.00036419111982788967</v>
       </c>
       <c r="I16">
-        <v>6.3624425720327024e-06</v>
+        <v>6.1473807015119374e-06</v>
       </c>
       <c r="J16">
-        <v>0.005247476608644653</v>
+        <v>0.99208875760037707</v>
       </c>
       <c r="K16">
-        <v>1.6943346447440254e-10</v>
+        <v>8.0016355332187734e-09</v>
       </c>
       <c r="L16">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -1129,37 +1246,37 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.00019491020581425595</v>
+        <v>0.0030062125786482654</v>
       </c>
       <c r="C17">
-        <v>2.3363506642831234e-05</v>
+        <v>0.93950030249944505</v>
       </c>
       <c r="D17">
-        <v>0.0035291298725354894</v>
+        <v>0.002891148482232203</v>
       </c>
       <c r="E17">
-        <v>2.2204005507015745e-14</v>
+        <v>6.5055511085838539e-14</v>
       </c>
       <c r="F17">
-        <v>2.9755587642600057e-12</v>
+        <v>4.165017961167393e-12</v>
       </c>
       <c r="G17">
-        <v>0.00020406715484811778</v>
+        <v>0.018739389587932257</v>
       </c>
       <c r="H17">
-        <v>0.0031774994166404035</v>
+        <v>7.1890812432720591e-07</v>
       </c>
       <c r="I17">
-        <v>8.8903688661003209e-06</v>
+        <v>7.3117026067272889e-06</v>
       </c>
       <c r="J17">
-        <v>0.99286207984575925</v>
+        <v>3.2477546572686166e-05</v>
       </c>
       <c r="K17">
-        <v>5.9625895849968059e-08</v>
+        <v>0.035822438690208409</v>
       </c>
       <c r="L17">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1167,34 +1284,34 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>9.475235332396014e-05</v>
+        <v>0.00011852072783397677</v>
       </c>
       <c r="C18">
-        <v>2.1168511901170491e-06</v>
+        <v>2.8182911141292229e-06</v>
       </c>
       <c r="D18">
-        <v>5.5808041268969108e-08</v>
+        <v>1.0684160383176132e-08</v>
       </c>
       <c r="E18">
-        <v>0.98579096757763029</v>
+        <v>0.98910250335491978</v>
       </c>
       <c r="F18">
-        <v>4.6520640724703811e-05</v>
+        <v>0.00035294435740342825</v>
       </c>
       <c r="G18">
-        <v>0.000123308171517096</v>
+        <v>0.0002142491577054802</v>
       </c>
       <c r="H18">
-        <v>2.4309528143369821e-07</v>
+        <v>1.4452347172124246e-07</v>
       </c>
       <c r="I18">
-        <v>6.0602193113387898e-06</v>
+        <v>1.0777762357327127e-05</v>
       </c>
       <c r="J18">
-        <v>0.013935975221710788</v>
+        <v>0.010198031063422373</v>
       </c>
       <c r="K18">
-        <v>6.1268951385083938e-11</v>
+        <v>7.7611571713940401e-11</v>
       </c>
       <c r="L18">
         <v>4</v>
@@ -1205,34 +1322,34 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.00083039630246896595</v>
+        <v>0.00065616447387609948</v>
       </c>
       <c r="C19">
-        <v>0.000126348756717341</v>
+        <v>0.00010451313806698542</v>
       </c>
       <c r="D19">
-        <v>7.2020144803189111e-05</v>
+        <v>2.2089921797879118e-05</v>
       </c>
       <c r="E19">
-        <v>2.2199662513780132e-14</v>
+        <v>2.2199577977771622e-14</v>
       </c>
       <c r="F19">
-        <v>2.2199662513780132e-14</v>
+        <v>2.2199577977771622e-14</v>
       </c>
       <c r="G19">
-        <v>4.0549118183247355e-05</v>
+        <v>0.00014848110866759137</v>
       </c>
       <c r="H19">
-        <v>0.98554364007380746</v>
+        <v>0.97955097110083433</v>
       </c>
       <c r="I19">
-        <v>7.0604590448254129e-07</v>
+        <v>1.2129869916983719e-06</v>
       </c>
       <c r="J19">
-        <v>0.013385592712135337</v>
+        <v>0.019516265176481706</v>
       </c>
       <c r="K19">
-        <v>7.4684593550176767e-07</v>
+        <v>3.0209323918407717e-07</v>
       </c>
       <c r="L19">
         <v>7</v>
@@ -1243,37 +1360,37 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.00013894756730561394</v>
+        <v>0.00016757099252984498</v>
       </c>
       <c r="C20">
-        <v>5.4094962275139902e-06</v>
+        <v>1.0123742730650333e-05</v>
       </c>
       <c r="D20">
-        <v>0.98953704059138659</v>
+        <v>1.6725962512589586e-08</v>
       </c>
       <c r="E20">
-        <v>2.220021222222346e-14</v>
+        <v>0.99187925918287811</v>
       </c>
       <c r="F20">
-        <v>2.0634166473046966e-09</v>
+        <v>0.00022634104987043885</v>
       </c>
       <c r="G20">
-        <v>0.00042866627862246816</v>
+        <v>0.00027590297163218461</v>
       </c>
       <c r="H20">
-        <v>8.0911428993775808e-07</v>
+        <v>1.2278255613594501e-06</v>
       </c>
       <c r="I20">
-        <v>3.5628930738063216e-06</v>
+        <v>3.0963283252423582e-06</v>
       </c>
       <c r="J20">
-        <v>0.0098855416429553568</v>
+        <v>0.0074364611253577998</v>
       </c>
       <c r="K20">
-        <v>2.0352699926595275e-08</v>
+        <v>5.5151991476033819e-11</v>
       </c>
       <c r="L20">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -1281,37 +1398,37 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>6.553580352837005e-05</v>
+        <v>0.00014049823670180672</v>
       </c>
       <c r="C21">
-        <v>3.2160709355560404e-06</v>
+        <v>8.2734652901059559e-06</v>
       </c>
       <c r="D21">
-        <v>0.022060507025228882</v>
+        <v>1.0374601781671873e-07</v>
       </c>
       <c r="E21">
-        <v>2.219976753351817e-14</v>
+        <v>0.99414522996593224</v>
       </c>
       <c r="F21">
-        <v>1.8209635611518369e-12</v>
+        <v>4.7911313427358499e-05</v>
       </c>
       <c r="G21">
-        <v>0.00012838670270243167</v>
+        <v>0.0004034899683141907</v>
       </c>
       <c r="H21">
-        <v>0.00013918906813066505</v>
+        <v>6.5408366650885647e-07</v>
       </c>
       <c r="I21">
-        <v>2.6192491165814461e-05</v>
+        <v>6.3624425720327024e-06</v>
       </c>
       <c r="J21">
-        <v>0.97757694384296845</v>
+        <v>0.005247476608644653</v>
       </c>
       <c r="K21">
-        <v>2.8993496587801557e-08</v>
+        <v>1.6943346447440254e-10</v>
       </c>
       <c r="L21">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -1319,34 +1436,34 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0.00035792693808113008</v>
+        <v>0.00019491020581425595</v>
       </c>
       <c r="C22">
-        <v>2.7690134611706755e-05</v>
+        <v>2.3363506642831234e-05</v>
       </c>
       <c r="D22">
-        <v>0.012516216397645644</v>
+        <v>0.0035291298725354894</v>
       </c>
       <c r="E22">
-        <v>2.2201488384638306e-14</v>
+        <v>2.2204005507015745e-14</v>
       </c>
       <c r="F22">
-        <v>1.4388380325340951e-12</v>
+        <v>2.9755587642600057e-12</v>
       </c>
       <c r="G22">
-        <v>0.00011054678543316952</v>
+        <v>0.00020406715484811778</v>
       </c>
       <c r="H22">
-        <v>0.0023757811074823091</v>
+        <v>0.0031774994166404035</v>
       </c>
       <c r="I22">
-        <v>8.4094180226136168e-06</v>
+        <v>8.8903688661003209e-06</v>
       </c>
       <c r="J22">
-        <v>0.9846031130475017</v>
+        <v>0.99286207984575925</v>
       </c>
       <c r="K22">
-        <v>3.1616976068060869e-07</v>
+        <v>5.9625895849968059e-08</v>
       </c>
       <c r="L22">
         <v>9</v>
@@ -1357,37 +1474,37 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.0010826375722173313</v>
+        <v>9.475235332396014e-05</v>
       </c>
       <c r="C23">
-        <v>0.9971215564663648</v>
+        <v>2.1168511901170491e-06</v>
       </c>
       <c r="D23">
-        <v>0.00068891747196967422</v>
+        <v>5.5808041268969108e-08</v>
       </c>
       <c r="E23">
-        <v>2.2200460284316989e-14</v>
+        <v>0.98579096757763029</v>
       </c>
       <c r="F23">
-        <v>2.2200460284316989e-14</v>
+        <v>4.6520640724703811e-05</v>
       </c>
       <c r="G23">
-        <v>0.00086554823638320668</v>
+        <v>0.000123308171517096</v>
       </c>
       <c r="H23">
-        <v>6.239342035004872e-06</v>
+        <v>2.4309528143369821e-07</v>
       </c>
       <c r="I23">
-        <v>4.3037658749811093e-07</v>
+        <v>6.0602193113387898e-06</v>
       </c>
       <c r="J23">
-        <v>0.00023452627660845244</v>
+        <v>0.013935975221710788</v>
       </c>
       <c r="K23">
-        <v>1.4425778973829461e-07</v>
+        <v>6.1268951385083938e-11</v>
       </c>
       <c r="L23">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -1395,34 +1512,34 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0.00012049235295526103</v>
+        <v>0.00010837080974844627</v>
       </c>
       <c r="C24">
-        <v>1.0202482680694691e-05</v>
+        <v>8.2534037363315241e-06</v>
       </c>
       <c r="D24">
-        <v>9.547131950677268e-08</v>
+        <v>1.5095778602128459e-08</v>
       </c>
       <c r="E24">
-        <v>0.98891672521362817</v>
+        <v>0.98712161726133074</v>
       </c>
       <c r="F24">
-        <v>2.6675883624177281e-05</v>
+        <v>0.00019627448637307408</v>
       </c>
       <c r="G24">
-        <v>0.00021274162817801467</v>
+        <v>0.00021316137028418918</v>
       </c>
       <c r="H24">
-        <v>2.7909561588186108e-06</v>
+        <v>5.2767502754212193e-07</v>
       </c>
       <c r="I24">
-        <v>1.7883111052599223e-06</v>
+        <v>2.1160810773660053e-06</v>
       </c>
       <c r="J24">
-        <v>0.010708487630770171</v>
+        <v>0.012349663779443678</v>
       </c>
       <c r="K24">
-        <v>6.9579923147891668e-11</v>
+        <v>3.7200046529236068e-11</v>
       </c>
       <c r="L24">
         <v>4</v>
@@ -1433,37 +1550,37 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.0011625933836905908</v>
+        <v>0.00023768072593491013</v>
       </c>
       <c r="C25">
-        <v>0.00012923377345119843</v>
+        <v>2.3291061243222517e-05</v>
       </c>
       <c r="D25">
-        <v>6.2486521685620197e-05</v>
+        <v>0.0031036195637294062</v>
       </c>
       <c r="E25">
-        <v>2.2200997108278839e-14</v>
+        <v>2.4268467601847473e-14</v>
       </c>
       <c r="F25">
-        <v>2.2200997108278839e-14</v>
+        <v>8.7748369516718546e-07</v>
       </c>
       <c r="G25">
-        <v>6.6760849886114614e-05</v>
+        <v>0.0005653352074521049</v>
       </c>
       <c r="H25">
-        <v>0.99075792475375768</v>
+        <v>0.0011476618529349374</v>
       </c>
       <c r="I25">
-        <v>3.4296774520191262e-07</v>
+        <v>7.4720840274204915e-07</v>
       </c>
       <c r="J25">
-        <v>0.0078203421767713954</v>
+        <v>0.99492078529118899</v>
       </c>
       <c r="K25">
-        <v>3.1557296760616629e-07</v>
+        <v>1.6053943752974278e-09</v>
       </c>
       <c r="L25">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -1471,37 +1588,37 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>8.7201147056106056e-05</v>
+        <v>0.00083039630246896595</v>
       </c>
       <c r="C26">
-        <v>3.9948544302574283e-06</v>
+        <v>0.000126348756717341</v>
       </c>
       <c r="D26">
-        <v>1.8069932157120553e-07</v>
+        <v>7.2020144803189111e-05</v>
       </c>
       <c r="E26">
-        <v>0.98747915011762932</v>
+        <v>2.2199662513780132e-14</v>
       </c>
       <c r="F26">
-        <v>1.8682995692692614e-05</v>
+        <v>2.2199662513780132e-14</v>
       </c>
       <c r="G26">
-        <v>0.00025442979650816338</v>
+        <v>4.0549118183247355e-05</v>
       </c>
       <c r="H26">
-        <v>2.4600388954412272e-07</v>
+        <v>0.98554364007380746</v>
       </c>
       <c r="I26">
-        <v>5.2357899646499381e-06</v>
+        <v>7.0604590448254129e-07</v>
       </c>
       <c r="J26">
-        <v>0.012150878477666152</v>
+        <v>0.013385592712135337</v>
       </c>
       <c r="K26">
-        <v>1.1784156458095586e-10</v>
+        <v>7.4684593550176767e-07</v>
       </c>
       <c r="L26">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
@@ -1509,34 +1626,34 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.00015420382063402783</v>
+        <v>0.00031778991634713708</v>
       </c>
       <c r="C27">
-        <v>6.8650473919253852e-06</v>
+        <v>8.251901075908693e-06</v>
       </c>
       <c r="D27">
-        <v>6.2813860121272596e-08</v>
+        <v>5.1058537712192683e-08</v>
       </c>
       <c r="E27">
-        <v>0.99110084586028269</v>
+        <v>0.99513075254622074</v>
       </c>
       <c r="F27">
-        <v>4.6073469152592735e-05</v>
+        <v>0.0001133368888445665</v>
       </c>
       <c r="G27">
-        <v>0.00029489350563371519</v>
+        <v>0.00035250692424874914</v>
       </c>
       <c r="H27">
-        <v>6.4256593668022843e-07</v>
+        <v>3.5010242166073745e-06</v>
       </c>
       <c r="I27">
-        <v>6.8917671965433926e-06</v>
+        <v>1.1940318844471024e-05</v>
       </c>
       <c r="J27">
-        <v>0.0083895209217335048</v>
+        <v>0.0040618686780394863</v>
       </c>
       <c r="K27">
-        <v>2.2817830633949674e-10</v>
+        <v>7.4362463694526114e-10</v>
       </c>
       <c r="L27">
         <v>4</v>
@@ -1547,37 +1664,37 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0.00076173375841039363</v>
+        <v>0.00010496898372433618</v>
       </c>
       <c r="C28">
-        <v>0.00028122850109295311</v>
+        <v>3.2057170685697877e-07</v>
       </c>
       <c r="D28">
-        <v>0.00039939822721003049</v>
+        <v>1.096910242766713e-07</v>
       </c>
       <c r="E28">
-        <v>2.2200928841153948e-14</v>
+        <v>0.99450739321346859</v>
       </c>
       <c r="F28">
-        <v>2.2200928841153948e-14</v>
+        <v>2.4751859704386281e-06</v>
       </c>
       <c r="G28">
-        <v>7.2350135568176812e-05</v>
+        <v>0.00018579612191807138</v>
       </c>
       <c r="H28">
-        <v>0.98956021277544182</v>
+        <v>2.9286560882417617e-09</v>
       </c>
       <c r="I28">
-        <v>6.401616941684814e-07</v>
+        <v>0.00072361990683429006</v>
       </c>
       <c r="J28">
-        <v>0.0089241293139069363</v>
+        <v>0.0044753133903495555</v>
       </c>
       <c r="K28">
-        <v>3.0712663126461408e-07</v>
+        <v>6.3473781109297956e-12</v>
       </c>
       <c r="L28">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -1585,37 +1702,37 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0.00050059629236815439</v>
+        <v>0.0022335769176581692</v>
       </c>
       <c r="C29">
-        <v>0.00015105879326964602</v>
+        <v>1.456961996029078e-05</v>
       </c>
       <c r="D29">
-        <v>1.5888869364072381e-05</v>
+        <v>0.029003549205891724</v>
       </c>
       <c r="E29">
-        <v>2.2196915464159398e-14</v>
+        <v>5.3137666323601636e-13</v>
       </c>
       <c r="F29">
-        <v>2.2196915464159398e-14</v>
+        <v>7.5554603517912217e-06</v>
       </c>
       <c r="G29">
-        <v>7.5025599350986424e-05</v>
+        <v>0.0026814362309170239</v>
       </c>
       <c r="H29">
-        <v>0.96527320942146422</v>
+        <v>3.9107151876233693e-05</v>
       </c>
       <c r="I29">
-        <v>1.1567680253009835e-06</v>
+        <v>0.0047506844527993135</v>
       </c>
       <c r="J29">
-        <v>0.033982684385228182</v>
+        <v>0.96126914359920346</v>
       </c>
       <c r="K29">
-        <v>3.7987088519393694e-07</v>
+        <v>3.7736081077872669e-07</v>
       </c>
       <c r="L29">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
@@ -1623,37 +1740,37 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0.00012887144559974798</v>
+        <v>0.00016379445700211859</v>
       </c>
       <c r="C30">
-        <v>3.140885474633866e-06</v>
+        <v>1.1108869606582686e-05</v>
       </c>
       <c r="D30">
-        <v>0.01319155993869529</v>
+        <v>3.8419511358524836e-08</v>
       </c>
       <c r="E30">
-        <v>2.2242351782494717e-14</v>
+        <v>0.99228801704718195</v>
       </c>
       <c r="F30">
-        <v>1.0963669719383114e-09</v>
+        <v>6.9930694473530023e-05</v>
       </c>
       <c r="G30">
-        <v>0.00022496110670749747</v>
+        <v>0.00038032091656114888</v>
       </c>
       <c r="H30">
-        <v>5.8996729149457408e-05</v>
+        <v>5.6450047484559773e-07</v>
       </c>
       <c r="I30">
-        <v>1.9716693621937575e-05</v>
+        <v>6.4537010380873243e-06</v>
       </c>
       <c r="J30">
-        <v>0.98637269432134844</v>
+        <v>0.0070797712728899818</v>
       </c>
       <c r="K30">
-        <v>5.7783013832951047e-08</v>
+        <v>1.2126061694529792e-10</v>
       </c>
       <c r="L30">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -1661,37 +1778,37 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0.00070255820509239027</v>
+        <v>0.00013894756730561394</v>
       </c>
       <c r="C31">
-        <v>4.6011774978823001e-05</v>
+        <v>5.4094962275139902e-06</v>
       </c>
       <c r="D31">
-        <v>0.0066302392532879102</v>
+        <v>0.98953704059138659</v>
       </c>
       <c r="E31">
-        <v>1.2345097874853078e-13</v>
+        <v>2.220021222222346e-14</v>
       </c>
       <c r="F31">
-        <v>9.7508023542601413e-07</v>
+        <v>2.0634166473046966e-09</v>
       </c>
       <c r="G31">
-        <v>0.0016030638741767172</v>
+        <v>0.00042866627862246816</v>
       </c>
       <c r="H31">
-        <v>0.00026304454281901135</v>
+        <v>8.0911428993775808e-07</v>
       </c>
       <c r="I31">
-        <v>1.155227165189602e-05</v>
+        <v>3.5628930738063216e-06</v>
       </c>
       <c r="J31">
-        <v>0.9907425400937292</v>
+        <v>0.0098855416429553568</v>
       </c>
       <c r="K31">
-        <v>1.4903905190350258e-08</v>
+        <v>2.0352699926595275e-08</v>
       </c>
       <c r="L31">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -1699,37 +1816,37 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.0010819491026271303</v>
+        <v>6.553580352837005e-05</v>
       </c>
       <c r="C32">
-        <v>0.00033077027146337417</v>
+        <v>3.2160709355560404e-06</v>
       </c>
       <c r="D32">
-        <v>2.2272344171428498e-05</v>
+        <v>0.022060507025228882</v>
       </c>
       <c r="E32">
-        <v>2.2201310342953066e-14</v>
+        <v>2.219976753351817e-14</v>
       </c>
       <c r="F32">
-        <v>2.2201310342953066e-14</v>
+        <v>1.8209635611518369e-12</v>
       </c>
       <c r="G32">
-        <v>7.3775737561115838e-05</v>
+        <v>0.00012838670270243167</v>
       </c>
       <c r="H32">
-        <v>0.9926889403938931</v>
+        <v>0.00013918906813066505</v>
       </c>
       <c r="I32">
-        <v>1.0310651194367157e-06</v>
+        <v>2.6192491165814461e-05</v>
       </c>
       <c r="J32">
-        <v>0.005800773000524344</v>
+        <v>0.97757694384296845</v>
       </c>
       <c r="K32">
-        <v>4.8808459576480104e-07</v>
+        <v>2.8993496587801557e-08</v>
       </c>
       <c r="L32">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33">
@@ -1737,37 +1854,37 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0.0048966853941688256</v>
+        <v>0.00035792693808113008</v>
       </c>
       <c r="C33">
-        <v>6.1999272494293528e-05</v>
+        <v>2.7690134611706755e-05</v>
       </c>
       <c r="D33">
-        <v>0.001038726832126875</v>
+        <v>0.012516216397645644</v>
       </c>
       <c r="E33">
-        <v>2.2201452784109769e-14</v>
+        <v>2.2201488384638306e-14</v>
       </c>
       <c r="F33">
-        <v>2.2201452784109769e-14</v>
+        <v>1.4388380325340951e-12</v>
       </c>
       <c r="G33">
-        <v>0.00046799071815021936</v>
+        <v>0.00011054678543316952</v>
       </c>
       <c r="H33">
-        <v>0.99333031846457676</v>
+        <v>0.0023757811074823091</v>
       </c>
       <c r="I33">
-        <v>8.3310264838876676e-06</v>
+        <v>8.4094180226136168e-06</v>
       </c>
       <c r="J33">
-        <v>3.4313632778471882e-05</v>
+        <v>0.9846031130475017</v>
       </c>
       <c r="K33">
-        <v>0.00016163465917624356</v>
+        <v>3.1616976068060869e-07</v>
       </c>
       <c r="L33">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34">
@@ -1775,37 +1892,37 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>0.00029885029221779968</v>
+        <v>0.0001661233411577847</v>
       </c>
       <c r="C34">
-        <v>2.0156730980345831e-05</v>
+        <v>5.7869813095721035e-06</v>
       </c>
       <c r="D34">
-        <v>0.031590412578202096</v>
+        <v>2.2273798122920789e-08</v>
       </c>
       <c r="E34">
-        <v>2.2752004949811738e-14</v>
+        <v>0.99034491971290672</v>
       </c>
       <c r="F34">
-        <v>1.5847386622466997e-08</v>
+        <v>6.914662627112615e-05</v>
       </c>
       <c r="G34">
-        <v>0.00033852632837588314</v>
+        <v>0.0003029765206921406</v>
       </c>
       <c r="H34">
-        <v>0.002648501277850151</v>
+        <v>3.4494716108953599e-07</v>
       </c>
       <c r="I34">
-        <v>1.4279735768602225e-06</v>
+        <v>1.4267549697737703e-05</v>
       </c>
       <c r="J34">
-        <v>0.96510208907123629</v>
+        <v>0.0090964116913503767</v>
       </c>
       <c r="K34">
-        <v>1.9900151129190254e-08</v>
+        <v>3.5565539573948106e-10</v>
       </c>
       <c r="L34">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
@@ -1813,37 +1930,37 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0.00010451381172026278</v>
+        <v>0.0010826375722173313</v>
       </c>
       <c r="C35">
-        <v>2.7724489546999862e-06</v>
+        <v>0.9971215564663648</v>
       </c>
       <c r="D35">
-        <v>0.019108308732782207</v>
+        <v>0.00068891747196967422</v>
       </c>
       <c r="E35">
-        <v>2.379922252462952e-14</v>
+        <v>2.2200460284316989e-14</v>
       </c>
       <c r="F35">
-        <v>1.4944589837963651e-09</v>
+        <v>2.2200460284316989e-14</v>
       </c>
       <c r="G35">
-        <v>0.00022199750468002586</v>
+        <v>0.00086554823638320668</v>
       </c>
       <c r="H35">
-        <v>5.0591517230535783e-05</v>
+        <v>6.239342035004872e-06</v>
       </c>
       <c r="I35">
-        <v>1.5954897186784694e-05</v>
+        <v>4.3037658749811093e-07</v>
       </c>
       <c r="J35">
-        <v>0.98049583452062827</v>
+        <v>0.00023452627660845244</v>
       </c>
       <c r="K35">
-        <v>2.5072334427566845e-08</v>
+        <v>1.4425778973829461e-07</v>
       </c>
       <c r="L35">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -1851,37 +1968,37 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>9.9030190240411591e-05</v>
+        <v>0.00012049235295526103</v>
       </c>
       <c r="C36">
-        <v>3.8177356241928156e-06</v>
+        <v>1.0202482680694691e-05</v>
       </c>
       <c r="D36">
-        <v>0.0096761189773871999</v>
+        <v>9.547131950677268e-08</v>
       </c>
       <c r="E36">
-        <v>2.3175241807519672e-14</v>
+        <v>0.98891672521362817</v>
       </c>
       <c r="F36">
-        <v>1.1032256706962424e-08</v>
+        <v>2.6675883624177281e-05</v>
       </c>
       <c r="G36">
-        <v>0.00015897981396491818</v>
+        <v>0.00021274162817801467</v>
       </c>
       <c r="H36">
-        <v>1.9124181721092681e-05</v>
+        <v>2.7909561588186108e-06</v>
       </c>
       <c r="I36">
-        <v>1.0727175098881694e-05</v>
+        <v>1.7883111052599223e-06</v>
       </c>
       <c r="J36">
-        <v>0.99003218005598681</v>
+        <v>0.010708487630770171</v>
       </c>
       <c r="K36">
-        <v>1.0837696581252363e-08</v>
+        <v>6.9579923147891668e-11</v>
       </c>
       <c r="L36">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -1889,34 +2006,34 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>0.0024104365999114154</v>
+        <v>0.0011625933836905908</v>
       </c>
       <c r="C37">
-        <v>0.00020163380025101603</v>
+        <v>0.00012923377345119843</v>
       </c>
       <c r="D37">
-        <v>0.00053232538238808902</v>
+        <v>6.2486521685620197e-05</v>
       </c>
       <c r="E37">
-        <v>2.2201886686448506e-14</v>
+        <v>2.2200997108278839e-14</v>
       </c>
       <c r="F37">
-        <v>3.5334204323713061e-14</v>
+        <v>2.2200997108278839e-14</v>
       </c>
       <c r="G37">
-        <v>0.00023727797844935611</v>
+        <v>6.6760849886114614e-05</v>
       </c>
       <c r="H37">
-        <v>0.99456567235658044</v>
+        <v>0.99075792475375768</v>
       </c>
       <c r="I37">
-        <v>3.6925560595061502e-07</v>
+        <v>3.4296774520191262e-07</v>
       </c>
       <c r="J37">
-        <v>0.0020495135936256952</v>
+        <v>0.0078203421767713954</v>
       </c>
       <c r="K37">
-        <v>2.7710331305603694e-06</v>
+        <v>3.1557296760616629e-07</v>
       </c>
       <c r="L37">
         <v>7</v>
@@ -1927,37 +2044,37 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>0.08288827319977074</v>
+        <v>5.9949614774762834e-05</v>
       </c>
       <c r="C38">
-        <v>0.28321475937295087</v>
+        <v>6.9553672078762773e-07</v>
       </c>
       <c r="D38">
-        <v>0.078740653378293668</v>
+        <v>8.4659452104592637e-08</v>
       </c>
       <c r="E38">
-        <v>2.0770543957897267e-12</v>
+        <v>0.98537802352792148</v>
       </c>
       <c r="F38">
-        <v>1.174786771175054e-08</v>
+        <v>1.4525614589172174e-05</v>
       </c>
       <c r="G38">
-        <v>0.18740694863869195</v>
+        <v>0.00013392205880713882</v>
       </c>
       <c r="H38">
-        <v>0.024716965434274894</v>
+        <v>2.1113859268942341e-09</v>
       </c>
       <c r="I38">
-        <v>0.00012917323056229628</v>
+        <v>6.480874935572536e-05</v>
       </c>
       <c r="J38">
-        <v>0.00020424993970877571</v>
+        <v>0.014347988114368101</v>
       </c>
       <c r="K38">
-        <v>0.34269896505580211</v>
+        <v>1.2625093980404278e-11</v>
       </c>
       <c r="L38">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
@@ -1965,37 +2082,37 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>0.00013656969079932848</v>
+        <v>5.1973256593648481e-05</v>
       </c>
       <c r="C39">
-        <v>3.1071999431533938e-06</v>
+        <v>2.4033787051209041e-06</v>
       </c>
       <c r="D39">
-        <v>0.029360546227385986</v>
+        <v>6.0707290735776436e-08</v>
       </c>
       <c r="E39">
-        <v>2.2200459649347057e-14</v>
+        <v>0.99258103771148343</v>
       </c>
       <c r="F39">
-        <v>6.3435248779596054e-12</v>
+        <v>3.5524244143409408e-06</v>
       </c>
       <c r="G39">
-        <v>0.00018889708596918136</v>
+        <v>0.00018592533745101877</v>
       </c>
       <c r="H39">
-        <v>0.00097641228695949801</v>
+        <v>3.0966415321849274e-09</v>
       </c>
       <c r="I39">
-        <v>2.8949924139445294e-05</v>
+        <v>7.7114898662553085e-05</v>
       </c>
       <c r="J39">
-        <v>0.96930544326098833</v>
+        <v>0.0070979291839193348</v>
       </c>
       <c r="K39">
-        <v>7.4317449237792751e-08</v>
+        <v>4.8383933233535909e-12</v>
       </c>
       <c r="L39">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -2003,37 +2120,37 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>9.8992804496339328e-05</v>
+        <v>0.00012662256792682141</v>
       </c>
       <c r="C40">
-        <v>1.0221096024829863e-05</v>
+        <v>1.0681345124428947e-05</v>
       </c>
       <c r="D40">
-        <v>0.0071063305198199589</v>
+        <v>1.0448150198723857e-08</v>
       </c>
       <c r="E40">
-        <v>2.2199980507648779e-14</v>
+        <v>0.98401329012664973</v>
       </c>
       <c r="F40">
-        <v>2.5492213582529473e-10</v>
+        <v>6.0723567907876387e-05</v>
       </c>
       <c r="G40">
-        <v>0.00020568360450333193</v>
+        <v>0.00027736089072982913</v>
       </c>
       <c r="H40">
-        <v>0.00018461675207349161</v>
+        <v>4.4957019296896009e-07</v>
       </c>
       <c r="I40">
-        <v>1.4367214406079681e-05</v>
+        <v>5.5634265608158526e-06</v>
       </c>
       <c r="J40">
-        <v>0.99237977364595464</v>
+        <v>0.015505297962024208</v>
       </c>
       <c r="K40">
-        <v>1.4107777029077383e-08</v>
+        <v>9.4733089551749371e-11</v>
       </c>
       <c r="L40">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
@@ -2041,37 +2158,37 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>8.0593926924978673e-05</v>
+        <v>8.7201147056106056e-05</v>
       </c>
       <c r="C41">
-        <v>1.0324988931528598e-06</v>
+        <v>3.9948544302574283e-06</v>
       </c>
       <c r="D41">
-        <v>0.036071536571325363</v>
+        <v>1.8069932157120553e-07</v>
       </c>
       <c r="E41">
-        <v>2.220022864441645e-14</v>
+        <v>0.98747915011762932</v>
       </c>
       <c r="F41">
-        <v>4.7343082549930015e-08</v>
+        <v>1.8682995692692614e-05</v>
       </c>
       <c r="G41">
-        <v>0.00018687124930582481</v>
+        <v>0.00025442979650816338</v>
       </c>
       <c r="H41">
-        <v>1.8939028690651979e-05</v>
+        <v>2.4600388954412272e-07</v>
       </c>
       <c r="I41">
-        <v>1.0396172310390432e-05</v>
+        <v>5.2357899646499381e-06</v>
       </c>
       <c r="J41">
-        <v>0.9636305777111801</v>
+        <v>0.012150878477666152</v>
       </c>
       <c r="K41">
-        <v>5.4982646510707214e-09</v>
+        <v>1.1784156458095586e-10</v>
       </c>
       <c r="L41">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -2079,37 +2196,37 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>0.00098378000816185885</v>
+        <v>0.00015420382063402783</v>
       </c>
       <c r="C42">
-        <v>0.00013238976420858219</v>
+        <v>6.8650473919253852e-06</v>
       </c>
       <c r="D42">
-        <v>1.7062676083461842e-05</v>
+        <v>6.2813860121272596e-08</v>
       </c>
       <c r="E42">
-        <v>2.2200948886203222e-14</v>
+        <v>0.99110084586028269</v>
       </c>
       <c r="F42">
-        <v>2.9052835326619515e-14</v>
+        <v>4.6073469152592735e-05</v>
       </c>
       <c r="G42">
-        <v>7.898836189494249e-05</v>
+        <v>0.00029489350563371519</v>
       </c>
       <c r="H42">
-        <v>0.99181761351924036</v>
+        <v>6.4256593668022843e-07</v>
       </c>
       <c r="I42">
-        <v>3.544238042392308e-07</v>
+        <v>6.8917671965433926e-06</v>
       </c>
       <c r="J42">
-        <v>0.0069694370561795144</v>
+        <v>0.0083895209217335048</v>
       </c>
       <c r="K42">
-        <v>3.7419037591163639e-07</v>
+        <v>2.2817830633949674e-10</v>
       </c>
       <c r="L42">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
@@ -2117,37 +2234,37 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>0.00014623132616216423</v>
+        <v>0.00025150959661605861</v>
       </c>
       <c r="C43">
-        <v>2.1356700946799275e-05</v>
+        <v>1.954265459060597e-05</v>
       </c>
       <c r="D43">
-        <v>0.01079331864670042</v>
+        <v>2.1181955366508698e-07</v>
       </c>
       <c r="E43">
-        <v>2.223741171586133e-14</v>
+        <v>0.99536306933606156</v>
       </c>
       <c r="F43">
-        <v>4.7190598226960003e-08</v>
+        <v>3.5513781404101015e-05</v>
       </c>
       <c r="G43">
-        <v>0.00029429596816877971</v>
+        <v>0.00060236164506554681</v>
       </c>
       <c r="H43">
-        <v>0.0011395664445709628</v>
+        <v>2.0793360421373784e-06</v>
       </c>
       <c r="I43">
-        <v>3.6588757727414121e-07</v>
+        <v>3.4638694554820603e-06</v>
       </c>
       <c r="J43">
-        <v>0.98760481634584418</v>
+        <v>0.0037222475672059642</v>
       </c>
       <c r="K43">
-        <v>1.4894089560201802e-09</v>
+        <v>3.9400454511859729e-10</v>
       </c>
       <c r="L43">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
@@ -2155,37 +2272,37 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>0.00021254533121240312</v>
+        <v>0.00076173375841039363</v>
       </c>
       <c r="C44">
-        <v>1.0719707047474688e-05</v>
+        <v>0.00028122850109295311</v>
       </c>
       <c r="D44">
-        <v>3.5527490316409232e-08</v>
+        <v>0.00039939822721003049</v>
       </c>
       <c r="E44">
-        <v>0.99601869068738136</v>
+        <v>2.2200928841153948e-14</v>
       </c>
       <c r="F44">
-        <v>0.00067182679842804052</v>
+        <v>2.2200928841153948e-14</v>
       </c>
       <c r="G44">
-        <v>0.00043818002539890535</v>
+        <v>7.2350135568176812e-05</v>
       </c>
       <c r="H44">
-        <v>5.60378968279035e-07</v>
+        <v>0.98956021277544182</v>
       </c>
       <c r="I44">
-        <v>8.2373095374183759e-06</v>
+        <v>6.401616941684814e-07</v>
       </c>
       <c r="J44">
-        <v>0.0026392041423353644</v>
+        <v>0.0089241293139069363</v>
       </c>
       <c r="K44">
-        <v>9.2200544327389846e-11</v>
+        <v>3.0712663126461408e-07</v>
       </c>
       <c r="L44">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
@@ -2193,37 +2310,37 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>0.0094442778187095282</v>
+        <v>0.00019644980914449304</v>
       </c>
       <c r="C45">
-        <v>3.7064902459426087e-05</v>
+        <v>6.4698012859767338e-06</v>
       </c>
       <c r="D45">
-        <v>0.30108220206096187</v>
+        <v>9.991959166381977e-08</v>
       </c>
       <c r="E45">
-        <v>4.9579505219907878e-13</v>
+        <v>0.99600988421382552</v>
       </c>
       <c r="F45">
-        <v>2.6801201168184481e-09</v>
+        <v>0.00035122357594486581</v>
       </c>
       <c r="G45">
-        <v>0.0041703563512779296</v>
+        <v>0.00035752059860564715</v>
       </c>
       <c r="H45">
-        <v>0.0051200952451959433</v>
+        <v>1.6847348815257215e-07</v>
       </c>
       <c r="I45">
-        <v>0.0065335048023460168</v>
+        <v>2.2432737604255413e-05</v>
       </c>
       <c r="J45">
-        <v>0.67357256292650258</v>
+        <v>0.0030557507386715929</v>
       </c>
       <c r="K45">
-        <v>3.9933211930940067e-05</v>
+        <v>1.3183774382521467e-10</v>
       </c>
       <c r="L45">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -2231,34 +2348,34 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>0.0011055106390818182</v>
+        <v>0.00050059629236815439</v>
       </c>
       <c r="C46">
-        <v>0.00046101818678852871</v>
+        <v>0.00015105879326964602</v>
       </c>
       <c r="D46">
-        <v>0.0011274104214534066</v>
+        <v>1.5888869364072381e-05</v>
       </c>
       <c r="E46">
-        <v>2.2200716158941664e-14</v>
+        <v>2.2196915464159398e-14</v>
       </c>
       <c r="F46">
-        <v>2.2200716158941664e-14</v>
+        <v>2.2196915464159398e-14</v>
       </c>
       <c r="G46">
-        <v>9.0026138427348314e-05</v>
+        <v>7.5025599350986424e-05</v>
       </c>
       <c r="H46">
-        <v>0.97431036098681523</v>
+        <v>0.96527320942146422</v>
       </c>
       <c r="I46">
-        <v>4.3737582436248246e-06</v>
+        <v>1.1567680253009835e-06</v>
       </c>
       <c r="J46">
-        <v>0.022897549357770046</v>
+        <v>0.033982684385228182</v>
       </c>
       <c r="K46">
-        <v>3.7505113757145729e-06</v>
+        <v>3.7987088519393694e-07</v>
       </c>
       <c r="L46">
         <v>7</v>
@@ -2269,34 +2386,34 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>0.00020231838133704779</v>
+        <v>0.00012887144559974798</v>
       </c>
       <c r="C47">
-        <v>5.3037198519022763e-06</v>
+        <v>3.140885474633866e-06</v>
       </c>
       <c r="D47">
-        <v>0.0037360066402392857</v>
+        <v>0.01319155993869529</v>
       </c>
       <c r="E47">
-        <v>2.7376549730694671e-14</v>
+        <v>2.2242351782494717e-14</v>
       </c>
       <c r="F47">
-        <v>1.4029846603092045e-08</v>
+        <v>1.0963669719383114e-09</v>
       </c>
       <c r="G47">
-        <v>0.00039063744830964472</v>
+        <v>0.00022496110670749747</v>
       </c>
       <c r="H47">
-        <v>0.00012241851387587738</v>
+        <v>5.8996729149457408e-05</v>
       </c>
       <c r="I47">
-        <v>1.9483061270382685e-05</v>
+        <v>1.9716693621937575e-05</v>
       </c>
       <c r="J47">
-        <v>0.99552378487022108</v>
+        <v>0.98637269432134844</v>
       </c>
       <c r="K47">
-        <v>3.3335020738876243e-08</v>
+        <v>5.7783013832951047e-08</v>
       </c>
       <c r="L47">
         <v>9</v>
@@ -2307,37 +2424,37 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>0.00053177424041588278</v>
+        <v>0.00070255820509239027</v>
       </c>
       <c r="C48">
-        <v>0.00012711874741460402</v>
+        <v>4.6011774978823001e-05</v>
       </c>
       <c r="D48">
-        <v>1.629536364061494e-05</v>
+        <v>0.0066302392532879102</v>
       </c>
       <c r="E48">
-        <v>2.2198722569409961e-14</v>
+        <v>1.2345097874853078e-13</v>
       </c>
       <c r="F48">
-        <v>2.2198722569409961e-14</v>
+        <v>9.7508023542601413e-07</v>
       </c>
       <c r="G48">
-        <v>8.3219452361404686e-05</v>
+        <v>0.0016030638741767172</v>
       </c>
       <c r="H48">
-        <v>0.97839221743472893</v>
+        <v>0.00026304454281901135</v>
       </c>
       <c r="I48">
-        <v>4.0867701507932474e-07</v>
+        <v>1.155227165189602e-05</v>
       </c>
       <c r="J48">
-        <v>0.020848783010855753</v>
+        <v>0.9907425400937292</v>
       </c>
       <c r="K48">
-        <v>1.8307352345116922e-07</v>
+        <v>1.4903905190350258e-08</v>
       </c>
       <c r="L48">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49">
@@ -2345,34 +2462,34 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>0.0043302488399229603</v>
+        <v>0.0010819491026271303</v>
       </c>
       <c r="C49">
-        <v>0.0020629296591700287</v>
+        <v>0.00033077027146337417</v>
       </c>
       <c r="D49">
-        <v>0.00072412929737341182</v>
+        <v>2.2272344171428498e-05</v>
       </c>
       <c r="E49">
-        <v>3.4656414914183434e-14</v>
+        <v>2.2201310342953066e-14</v>
       </c>
       <c r="F49">
-        <v>3.4656414914183403e-14</v>
+        <v>2.2201310342953066e-14</v>
       </c>
       <c r="G49">
-        <v>0.00019355991589640494</v>
+        <v>7.3775737561115838e-05</v>
       </c>
       <c r="H49">
-        <v>0.98634134108563665</v>
+        <v>0.9926889403938931</v>
       </c>
       <c r="I49">
-        <v>1.8908485648473008e-05</v>
+        <v>1.0310651194367157e-06</v>
       </c>
       <c r="J49">
-        <v>0.0062323154309391511</v>
+        <v>0.005800773000524344</v>
       </c>
       <c r="K49">
-        <v>9.6567285343525242e-05</v>
+        <v>4.8808459576480104e-07</v>
       </c>
       <c r="L49">
         <v>7</v>
@@ -2383,37 +2500,37 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>0.00011375471291841557</v>
+        <v>0.0048966853941688256</v>
       </c>
       <c r="C50">
-        <v>1.0011130152541024e-06</v>
+        <v>6.1999272494293528e-05</v>
       </c>
       <c r="D50">
-        <v>8.8528866374744279e-08</v>
+        <v>0.001038726832126875</v>
       </c>
       <c r="E50">
-        <v>0.99164312035941771</v>
+        <v>2.2201452784109769e-14</v>
       </c>
       <c r="F50">
-        <v>4.7755143101331897e-05</v>
+        <v>2.2201452784109769e-14</v>
       </c>
       <c r="G50">
-        <v>0.00024627805887039793</v>
+        <v>0.00046799071815021936</v>
       </c>
       <c r="H50">
-        <v>9.6355626409559368e-08</v>
+        <v>0.99333031846457676</v>
       </c>
       <c r="I50">
-        <v>4.1169072455630781e-05</v>
+        <v>8.3310264838876676e-06</v>
       </c>
       <c r="J50">
-        <v>0.007906736459207685</v>
+        <v>3.4313632778471882e-05</v>
       </c>
       <c r="K50">
-        <v>1.9652079478211583e-10</v>
+        <v>0.00016163465917624356</v>
       </c>
       <c r="L50">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
@@ -2421,34 +2538,34 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>5.7626474798664605e-05</v>
+        <v>0.00029885029221779968</v>
       </c>
       <c r="C51">
-        <v>3.9822303067013333e-06</v>
+        <v>2.0156730980345831e-05</v>
       </c>
       <c r="D51">
-        <v>0.01907791656886813</v>
+        <v>0.031590412578202096</v>
       </c>
       <c r="E51">
-        <v>2.2199092985188662e-14</v>
+        <v>2.2752004949811738e-14</v>
       </c>
       <c r="F51">
-        <v>2.4952435118050534e-12</v>
+        <v>1.5847386622466997e-08</v>
       </c>
       <c r="G51">
-        <v>5.5509808853705944e-05</v>
+        <v>0.00033852632837588314</v>
       </c>
       <c r="H51">
-        <v>4.6705426805014881e-05</v>
+        <v>0.002648501277850151</v>
       </c>
       <c r="I51">
-        <v>2.9819135731545503e-05</v>
+        <v>1.4279735768602225e-06</v>
       </c>
       <c r="J51">
-        <v>0.98072842047474751</v>
+        <v>0.96510208907123629</v>
       </c>
       <c r="K51">
-        <v>1.9877371250358851e-08</v>
+        <v>1.9900151129190254e-08</v>
       </c>
       <c r="L51">
         <v>9</v>
@@ -2459,37 +2576,37 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>0.00011283548504498832</v>
+        <v>0.00010451381172026278</v>
       </c>
       <c r="C52">
-        <v>7.6027565275259963e-06</v>
+        <v>2.7724489546999862e-06</v>
       </c>
       <c r="D52">
-        <v>2.2014855087990768e-08</v>
+        <v>0.019108308732782207</v>
       </c>
       <c r="E52">
-        <v>0.98988997425750658</v>
+        <v>2.379922252462952e-14</v>
       </c>
       <c r="F52">
-        <v>5.7645278668643528e-05</v>
+        <v>1.4944589837963651e-09</v>
       </c>
       <c r="G52">
-        <v>0.00025004273067677946</v>
+        <v>0.00022199750468002586</v>
       </c>
       <c r="H52">
-        <v>3.8170094270140232e-07</v>
+        <v>5.0591517230535783e-05</v>
       </c>
       <c r="I52">
-        <v>6.0039863729536004e-06</v>
+        <v>1.5954897186784694e-05</v>
       </c>
       <c r="J52">
-        <v>0.0096754916583686908</v>
+        <v>0.98049583452062827</v>
       </c>
       <c r="K52">
-        <v>1.3103613829677403e-10</v>
+        <v>2.5072334427566845e-08</v>
       </c>
       <c r="L52">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53">
@@ -2497,37 +2614,37 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>0.0011473092855380286</v>
+        <v>9.9030190240411591e-05</v>
       </c>
       <c r="C53">
-        <v>0.00092860882861956102</v>
+        <v>3.8177356241928156e-06</v>
       </c>
       <c r="D53">
-        <v>0.00012025064635878265</v>
+        <v>0.0096761189773871999</v>
       </c>
       <c r="E53">
-        <v>2.2201711193172078e-14</v>
+        <v>2.3175241807519672e-14</v>
       </c>
       <c r="F53">
-        <v>2.2201711193172078e-14</v>
+        <v>1.1032256706962424e-08</v>
       </c>
       <c r="G53">
-        <v>0.00015695703434126754</v>
+        <v>0.00015897981396491818</v>
       </c>
       <c r="H53">
-        <v>0.99334411480439944</v>
+        <v>1.9124181721092681e-05</v>
       </c>
       <c r="I53">
-        <v>1.5339936059962961e-06</v>
+        <v>1.0727175098881694e-05</v>
       </c>
       <c r="J53">
-        <v>0.0042984708732858642</v>
+        <v>0.99003218005598681</v>
       </c>
       <c r="K53">
-        <v>2.7545338065865213e-06</v>
+        <v>1.0837696581252363e-08</v>
       </c>
       <c r="L53">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54">
@@ -2535,37 +2652,37 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>9.8784840315294285e-05</v>
+        <v>0.00070010207646710768</v>
       </c>
       <c r="C54">
-        <v>0.037202409226527046</v>
+        <v>5.5575086543789681e-05</v>
       </c>
       <c r="D54">
-        <v>0.0006125047209469542</v>
+        <v>0.008138098209297482</v>
       </c>
       <c r="E54">
-        <v>2.2199308805491628e-14</v>
+        <v>1.0068313499149331e-13</v>
       </c>
       <c r="F54">
-        <v>5.4891220160164491e-07</v>
+        <v>6.9374003310030308e-07</v>
       </c>
       <c r="G54">
-        <v>0.00074629453303467846</v>
+        <v>0.0021387633378380198</v>
       </c>
       <c r="H54">
-        <v>1.2604371845612102e-06</v>
+        <v>0.00076952537249493341</v>
       </c>
       <c r="I54">
-        <v>3.9250752120678636e-08</v>
+        <v>9.0480911723941452e-06</v>
       </c>
       <c r="J54">
-        <v>5.2082230838959972e-09</v>
+        <v>0.98818818442262579</v>
       </c>
       <c r="K54">
-        <v>0.96133815287079238</v>
+        <v>9.6634267518768627e-09</v>
       </c>
       <c r="L54">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55">
@@ -2573,37 +2690,37 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>0.00017440821794630483</v>
+        <v>0.0024104365999114154</v>
       </c>
       <c r="C55">
-        <v>0.078059332243093457</v>
+        <v>0.00020163380025101603</v>
       </c>
       <c r="D55">
-        <v>0.0010163012895583036</v>
+        <v>0.00053232538238808902</v>
       </c>
       <c r="E55">
-        <v>2.2199715708490283e-14</v>
+        <v>2.2201886686448506e-14</v>
       </c>
       <c r="F55">
-        <v>2.4032816154290898e-07</v>
+        <v>3.5334204323713061e-14</v>
       </c>
       <c r="G55">
-        <v>0.0014472353573240862</v>
+        <v>0.00023727797844935611</v>
       </c>
       <c r="H55">
-        <v>1.551058636829029e-06</v>
+        <v>0.99456567235658044</v>
       </c>
       <c r="I55">
-        <v>4.3675130020156096e-08</v>
+        <v>3.6925560595061502e-07</v>
       </c>
       <c r="J55">
-        <v>4.0506911097244802e-09</v>
+        <v>0.0020495135936256952</v>
       </c>
       <c r="K55">
-        <v>0.9193008837794362</v>
+        <v>2.7710331305603694e-06</v>
       </c>
       <c r="L55">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56">
@@ -2611,37 +2728,37 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>0.003981672533556282</v>
+        <v>0.08288827319977074</v>
       </c>
       <c r="C56">
-        <v>0.97898580862370921</v>
+        <v>0.28321475937295087</v>
       </c>
       <c r="D56">
-        <v>0.0018003166105801398</v>
+        <v>0.078740653378293668</v>
       </c>
       <c r="E56">
-        <v>6.5201888356079674e-14</v>
+        <v>2.0770543957897267e-12</v>
       </c>
       <c r="F56">
-        <v>4.7507349357089018e-11</v>
+        <v>1.174786771175054e-08</v>
       </c>
       <c r="G56">
-        <v>0.0078799294863076425</v>
+        <v>0.18740694863869195</v>
       </c>
       <c r="H56">
-        <v>3.0962352471126636e-06</v>
+        <v>0.024716965434274894</v>
       </c>
       <c r="I56">
-        <v>1.4259134676104255e-06</v>
+        <v>0.00012917323056229628</v>
       </c>
       <c r="J56">
-        <v>2.1775396221028176e-05</v>
+        <v>0.00020424993970877571</v>
       </c>
       <c r="K56">
-        <v>0.0073259751533385929</v>
+        <v>0.34269896505580211</v>
       </c>
       <c r="L56">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57">
@@ -2649,37 +2766,37 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>0.00017743948818292287</v>
+        <v>0.00013656969079932848</v>
       </c>
       <c r="C57">
-        <v>0.0032716583778121758</v>
+        <v>3.1071999431533938e-06</v>
       </c>
       <c r="D57">
-        <v>0.0019114471872695238</v>
+        <v>0.029360546227385986</v>
       </c>
       <c r="E57">
-        <v>2.2201618146190026e-14</v>
+        <v>2.2200459649347057e-14</v>
       </c>
       <c r="F57">
-        <v>9.0516049297077003e-07</v>
+        <v>6.3435248779596054e-12</v>
       </c>
       <c r="G57">
-        <v>0.00094141183730211378</v>
+        <v>0.00018889708596918136</v>
       </c>
       <c r="H57">
-        <v>4.8895559902556735e-07</v>
+        <v>0.00097641228695949801</v>
       </c>
       <c r="I57">
-        <v>1.532449334068653e-07</v>
+        <v>2.8949924139445294e-05</v>
       </c>
       <c r="J57">
-        <v>5.6626482312667037e-09</v>
+        <v>0.96930544326098833</v>
       </c>
       <c r="K57">
-        <v>0.99369649008573735</v>
+        <v>7.4317449237792751e-08</v>
       </c>
       <c r="L57">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58">
@@ -2687,37 +2804,37 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>0.00061823501589104517</v>
+        <v>9.8992804496339328e-05</v>
       </c>
       <c r="C58">
-        <v>0.00018716935011474104</v>
+        <v>1.0221096024829863e-05</v>
       </c>
       <c r="D58">
-        <v>3.5642832158601381e-05</v>
+        <v>0.0071063305198199589</v>
       </c>
       <c r="E58">
-        <v>2.220053183118763e-14</v>
+        <v>2.2199980507648779e-14</v>
       </c>
       <c r="F58">
-        <v>3.0821849538963796e-14</v>
+        <v>2.5492213582529473e-10</v>
       </c>
       <c r="G58">
-        <v>0.00014765451873787933</v>
+        <v>0.00020568360450333193</v>
       </c>
       <c r="H58">
-        <v>0.99005545938439521</v>
+        <v>0.00018461675207349161</v>
       </c>
       <c r="I58">
-        <v>5.4137629820154938e-07</v>
+        <v>1.4367214406079681e-05</v>
       </c>
       <c r="J58">
-        <v>0.0089550361136440989</v>
+        <v>0.99237977364595464</v>
       </c>
       <c r="K58">
-        <v>2.6140870726394074e-07</v>
+        <v>1.4107777029077383e-08</v>
       </c>
       <c r="L58">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59">
@@ -2725,37 +2842,37 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>0.0030619867980927209</v>
+        <v>8.0593926924978673e-05</v>
       </c>
       <c r="C59">
-        <v>0.00097511447096548982</v>
+        <v>1.0324988931528598e-06</v>
       </c>
       <c r="D59">
-        <v>0.0022462479926537052</v>
+        <v>0.036071536571325363</v>
       </c>
       <c r="E59">
-        <v>3.7437851555493217e-14</v>
+        <v>2.220022864441645e-14</v>
       </c>
       <c r="F59">
-        <v>3.7437851555493267e-14</v>
+        <v>4.7343082549930015e-08</v>
       </c>
       <c r="G59">
-        <v>0.00042208656409378168</v>
+        <v>0.00018687124930582481</v>
       </c>
       <c r="H59">
-        <v>0.98975685085345078</v>
+        <v>1.8939028690651979e-05</v>
       </c>
       <c r="I59">
-        <v>3.1118929377788211e-05</v>
+        <v>1.0396172310390432e-05</v>
       </c>
       <c r="J59">
-        <v>0.0034855127506429628</v>
+        <v>0.9636305777111801</v>
       </c>
       <c r="K59">
-        <v>2.1081640647899067e-05</v>
+        <v>5.4982646510707214e-09</v>
       </c>
       <c r="L59">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60">
@@ -2763,37 +2880,37 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>0.00157831049411291</v>
+        <v>0.00098378000816185885</v>
       </c>
       <c r="C60">
-        <v>0.98272979417726425</v>
+        <v>0.00013238976420858219</v>
       </c>
       <c r="D60">
-        <v>0.00068917898623043492</v>
+        <v>1.7062676083461842e-05</v>
       </c>
       <c r="E60">
-        <v>3.6976856997401532e-14</v>
+        <v>2.2200948886203222e-14</v>
       </c>
       <c r="F60">
-        <v>2.8507886502784876e-11</v>
+        <v>2.9052835326619515e-14</v>
       </c>
       <c r="G60">
-        <v>0.0075795255254518384</v>
+        <v>7.898836189494249e-05</v>
       </c>
       <c r="H60">
-        <v>2.5999079979190235e-07</v>
+        <v>0.99181761351924036</v>
       </c>
       <c r="I60">
-        <v>1.3601446184856927e-06</v>
+        <v>3.544238042392308e-07</v>
       </c>
       <c r="J60">
-        <v>1.1662849528772965e-05</v>
+        <v>0.0069694370561795144</v>
       </c>
       <c r="K60">
-        <v>0.0074099078034486733</v>
+        <v>3.7419037591163639e-07</v>
       </c>
       <c r="L60">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61">
@@ -2801,37 +2918,37 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>0.0014839747308665835</v>
+        <v>0.00014623132616216423</v>
       </c>
       <c r="C61">
-        <v>0.00041021335029982651</v>
+        <v>2.1356700946799275e-05</v>
       </c>
       <c r="D61">
-        <v>0.00026735201222443262</v>
+        <v>0.01079331864670042</v>
       </c>
       <c r="E61">
-        <v>2.2200544339672177e-14</v>
+        <v>2.223741171586133e-14</v>
       </c>
       <c r="F61">
-        <v>2.2200544339672177e-14</v>
+        <v>4.7190598226960003e-08</v>
       </c>
       <c r="G61">
-        <v>0.00025195335361536032</v>
+        <v>0.00029429596816877971</v>
       </c>
       <c r="H61">
-        <v>0.99474258371336133</v>
+        <v>0.0011395664445709628</v>
       </c>
       <c r="I61">
-        <v>1.617797278619081e-06</v>
+        <v>3.6588757727414121e-07</v>
       </c>
       <c r="J61">
-        <v>0.0028396490347186616</v>
+        <v>0.98760481634584418</v>
       </c>
       <c r="K61">
-        <v>2.6560075907113923e-06</v>
+        <v>1.4894089560201802e-09</v>
       </c>
       <c r="L61">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62">
@@ -2839,37 +2956,37 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>0.00018378711069509901</v>
+        <v>8.2369925903202955e-05</v>
       </c>
       <c r="C62">
-        <v>2.6317331134466742e-05</v>
+        <v>1.1475197072968432e-06</v>
       </c>
       <c r="D62">
-        <v>0.011435212479112304</v>
+        <v>1.9522737513066105e-08</v>
       </c>
       <c r="E62">
-        <v>2.2200121766017235e-14</v>
+        <v>0.99252164111719765</v>
       </c>
       <c r="F62">
-        <v>2.0242298576343037e-11</v>
+        <v>4.8956189063082881e-05</v>
       </c>
       <c r="G62">
-        <v>0.00036631480350458992</v>
+        <v>0.00018275824528008264</v>
       </c>
       <c r="H62">
-        <v>0.0021061693482644136</v>
+        <v>5.9560085383357971e-09</v>
       </c>
       <c r="I62">
-        <v>4.7402724379249422e-06</v>
+        <v>6.4440087436829085e-05</v>
       </c>
       <c r="J62">
-        <v>0.98587743550454743</v>
+        <v>0.0070986614290637117</v>
       </c>
       <c r="K62">
-        <v>2.3130039173941923e-08</v>
+        <v>7.6022004913004982e-12</v>
       </c>
       <c r="L62">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63">
@@ -2877,37 +2994,37 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>0.0018851313339524223</v>
+        <v>0.00016286982002417419</v>
       </c>
       <c r="C63">
-        <v>0.00093585956141957255</v>
+        <v>4.6847852036716482e-06</v>
       </c>
       <c r="D63">
-        <v>0.00023814648432481748</v>
+        <v>6.6383575053959745e-08</v>
       </c>
       <c r="E63">
-        <v>2.2199965445379605e-14</v>
+        <v>0.98932289480928759</v>
       </c>
       <c r="F63">
-        <v>2.2199965445379605e-14</v>
+        <v>5.372025398048828e-05</v>
       </c>
       <c r="G63">
-        <v>0.00020171502485111651</v>
+        <v>0.00024808147178208772</v>
       </c>
       <c r="H63">
-        <v>0.99262941350877631</v>
+        <v>9.5168838002320957e-07</v>
       </c>
       <c r="I63">
-        <v>3.0558870433676732e-06</v>
+        <v>1.0122736554928003e-05</v>
       </c>
       <c r="J63">
-        <v>0.0040939981182260797</v>
+        <v>0.010196607486770261</v>
       </c>
       <c r="K63">
-        <v>1.2680081362016282e-05</v>
+        <v>5.6444172714654548e-10</v>
       </c>
       <c r="L63">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64">
@@ -2915,37 +3032,37 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>6.7153272643666987e-05</v>
+        <v>0.00021254533121240312</v>
       </c>
       <c r="C64">
-        <v>7.2901429588208995e-06</v>
+        <v>1.0719707047474688e-05</v>
       </c>
       <c r="D64">
-        <v>0.0096194653449836361</v>
+        <v>3.5527490316409232e-08</v>
       </c>
       <c r="E64">
-        <v>2.2200086001116913e-14</v>
+        <v>0.99601869068738136</v>
       </c>
       <c r="F64">
-        <v>7.2582751692551358e-12</v>
+        <v>0.00067182679842804052</v>
       </c>
       <c r="G64">
-        <v>0.00012164260924400915</v>
+        <v>0.00043818002539890535</v>
       </c>
       <c r="H64">
-        <v>7.0254982519229572e-05</v>
+        <v>5.60378968279035e-07</v>
       </c>
       <c r="I64">
-        <v>2.1426809279222725e-05</v>
+        <v>8.2373095374183759e-06</v>
       </c>
       <c r="J64">
-        <v>0.99009273271445253</v>
+        <v>0.0026392041423353644</v>
       </c>
       <c r="K64">
-        <v>3.4116638335118802e-08</v>
+        <v>9.2200544327389846e-11</v>
       </c>
       <c r="L64">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65">
@@ -2953,37 +3070,37 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>0.032437904731076918</v>
+        <v>0.0094442778187095282</v>
       </c>
       <c r="C65">
-        <v>0.0074166321803298711</v>
+        <v>3.7064902459426087e-05</v>
       </c>
       <c r="D65">
-        <v>0.002412368297692783</v>
+        <v>0.30108220206096187</v>
       </c>
       <c r="E65">
-        <v>2.5047028029290629e-13</v>
+        <v>4.9579505219907878e-13</v>
       </c>
       <c r="F65">
-        <v>2.504702802929221e-13</v>
+        <v>2.6801201168184481e-09</v>
       </c>
       <c r="G65">
-        <v>0.010669244891347001</v>
+        <v>0.0041703563512779296</v>
       </c>
       <c r="H65">
-        <v>0.047064713794137479</v>
+        <v>0.0051200952451959433</v>
       </c>
       <c r="I65">
-        <v>0.0052019187076763392</v>
+        <v>0.0065335048023460168</v>
       </c>
       <c r="J65">
-        <v>0.00012904452310591731</v>
+        <v>0.67357256292650258</v>
       </c>
       <c r="K65">
-        <v>0.89466817287413281</v>
+        <v>3.9933211930940067e-05</v>
       </c>
       <c r="L65">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66">
@@ -2991,34 +3108,34 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>0.002214779609285609</v>
+        <v>0.0011055106390818182</v>
       </c>
       <c r="C66">
-        <v>0.00028491949014626007</v>
+        <v>0.00046101818678852871</v>
       </c>
       <c r="D66">
-        <v>0.00031342078093900299</v>
+        <v>0.0011274104214534066</v>
       </c>
       <c r="E66">
-        <v>2.2200861454573444e-14</v>
+        <v>2.2200716158941664e-14</v>
       </c>
       <c r="F66">
-        <v>1.7089639891614305e-12</v>
+        <v>2.2200716158941664e-14</v>
       </c>
       <c r="G66">
-        <v>0.00025087928095322658</v>
+        <v>9.0026138427348314e-05</v>
       </c>
       <c r="H66">
-        <v>0.98170753337279038</v>
+        <v>0.97431036098681523</v>
       </c>
       <c r="I66">
-        <v>9.8366924160166753e-07</v>
+        <v>4.3737582436248246e-06</v>
       </c>
       <c r="J66">
-        <v>0.015225552898781211</v>
+        <v>0.022897549357770046</v>
       </c>
       <c r="K66">
-        <v>1.9308961314058059e-06</v>
+        <v>3.7505113757145729e-06</v>
       </c>
       <c r="L66">
         <v>7</v>
@@ -3029,37 +3146,37 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>0.00022980424514437746</v>
+        <v>0.00020231838133704779</v>
       </c>
       <c r="C67">
-        <v>4.1027977237940564e-06</v>
+        <v>5.3037198519022763e-06</v>
       </c>
       <c r="D67">
-        <v>6.2174661168990432e-08</v>
+        <v>0.0037360066402392857</v>
       </c>
       <c r="E67">
-        <v>0.99270497828992232</v>
+        <v>2.7376549730694671e-14</v>
       </c>
       <c r="F67">
-        <v>0.00020912877821155265</v>
+        <v>1.4029846603092045e-08</v>
       </c>
       <c r="G67">
-        <v>0.00025348479722357221</v>
+        <v>0.00039063744830964472</v>
       </c>
       <c r="H67">
-        <v>8.1269345888479077e-07</v>
+        <v>0.00012241851387587738</v>
       </c>
       <c r="I67">
-        <v>1.081231754634137e-05</v>
+        <v>1.9483061270382685e-05</v>
       </c>
       <c r="J67">
-        <v>0.006586813370608101</v>
+        <v>0.99552378487022108</v>
       </c>
       <c r="K67">
-        <v>5.3549978262631004e-10</v>
+        <v>3.3335020738876243e-08</v>
       </c>
       <c r="L67">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68">
@@ -3067,34 +3184,34 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>0.0012032046047202357</v>
+        <v>0.00053177424041588278</v>
       </c>
       <c r="C68">
-        <v>0.00019425724926659782</v>
+        <v>0.00012711874741460402</v>
       </c>
       <c r="D68">
-        <v>4.0391720939650568e-05</v>
+        <v>1.629536364061494e-05</v>
       </c>
       <c r="E68">
-        <v>2.2200822555343616e-14</v>
+        <v>2.2198722569409961e-14</v>
       </c>
       <c r="F68">
-        <v>2.2200822555343616e-14</v>
+        <v>2.2198722569409961e-14</v>
       </c>
       <c r="G68">
-        <v>7.1250587418345422e-05</v>
+        <v>8.3219452361404686e-05</v>
       </c>
       <c r="H68">
-        <v>0.98900085585061515</v>
+        <v>0.97839221743472893</v>
       </c>
       <c r="I68">
-        <v>5.3396009107312304e-07</v>
+        <v>4.0867701507932474e-07</v>
       </c>
       <c r="J68">
-        <v>0.0094889916238536324</v>
+        <v>0.020848783010855753</v>
       </c>
       <c r="K68">
-        <v>5.1440305096225849e-07</v>
+        <v>1.8307352345116922e-07</v>
       </c>
       <c r="L68">
         <v>7</v>
@@ -3105,34 +3222,34 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>0.00091111597378308183</v>
+        <v>0.0043302488399229603</v>
       </c>
       <c r="C69">
-        <v>0.00022927204387476323</v>
+        <v>0.0020629296591700287</v>
       </c>
       <c r="D69">
-        <v>0.00086020738153601121</v>
+        <v>0.00072412929737341182</v>
       </c>
       <c r="E69">
-        <v>2.2200940192024715e-14</v>
+        <v>3.4656414914183434e-14</v>
       </c>
       <c r="F69">
-        <v>2.2200940192024715e-14</v>
+        <v>3.4656414914183403e-14</v>
       </c>
       <c r="G69">
-        <v>0.00011214152152719951</v>
+        <v>0.00019355991589640494</v>
       </c>
       <c r="H69">
-        <v>0.98596579954421026</v>
+        <v>0.98634134108563665</v>
       </c>
       <c r="I69">
-        <v>1.1945803645531374e-06</v>
+        <v>1.8908485648473008e-05</v>
       </c>
       <c r="J69">
-        <v>0.011919721062442398</v>
+        <v>0.0062323154309391511</v>
       </c>
       <c r="K69">
-        <v>5.4789221737455142e-07</v>
+        <v>9.6567285343525242e-05</v>
       </c>
       <c r="L69">
         <v>7</v>
@@ -3143,34 +3260,34 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>8.4913357962529334e-05</v>
+        <v>0.00040223600332163804</v>
       </c>
       <c r="C70">
-        <v>6.9571679575335102e-06</v>
+        <v>5.8593101551869398e-05</v>
       </c>
       <c r="D70">
-        <v>0.012537931788945498</v>
+        <v>0.011653970725601035</v>
       </c>
       <c r="E70">
-        <v>2.2200252130629624e-14</v>
+        <v>3.055951970881309e-14</v>
       </c>
       <c r="F70">
-        <v>1.2320909615623865e-10</v>
+        <v>9.6783659451708042e-07</v>
       </c>
       <c r="G70">
-        <v>0.00026992047343584038</v>
+        <v>0.00063516863200163492</v>
       </c>
       <c r="H70">
-        <v>0.00031647352123412417</v>
+        <v>0.0041316290040147941</v>
       </c>
       <c r="I70">
-        <v>7.010588835834948e-06</v>
+        <v>2.8523151969680321e-07</v>
       </c>
       <c r="J70">
-        <v>0.9867767834150587</v>
+        <v>0.98311714735755784</v>
       </c>
       <c r="K70">
-        <v>9.5633387137674235e-09</v>
+        <v>2.107806454113714e-09</v>
       </c>
       <c r="L70">
         <v>9</v>
@@ -3181,37 +3298,37 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>0.00042768341419149218</v>
+        <v>0.00011375471291841557</v>
       </c>
       <c r="C71">
-        <v>5.3247553530994853e-06</v>
+        <v>1.0011130152541024e-06</v>
       </c>
       <c r="D71">
-        <v>0.064506178776836759</v>
+        <v>8.8528866374744279e-08</v>
       </c>
       <c r="E71">
-        <v>4.9833361398417408e-14</v>
+        <v>0.99164312035941771</v>
       </c>
       <c r="F71">
-        <v>1.7744049807767978e-10</v>
+        <v>4.7755143101331897e-05</v>
       </c>
       <c r="G71">
-        <v>0.00067340746956774612</v>
+        <v>0.00024627805887039793</v>
       </c>
       <c r="H71">
-        <v>0.00078272333021757435</v>
+        <v>9.6355626409559368e-08</v>
       </c>
       <c r="I71">
-        <v>8.1591528179028982e-05</v>
+        <v>4.1169072455630781e-05</v>
       </c>
       <c r="J71">
-        <v>0.93352293744327275</v>
+        <v>0.007906736459207685</v>
       </c>
       <c r="K71">
-        <v>1.5310489111833947e-07</v>
+        <v>1.9652079478211583e-10</v>
       </c>
       <c r="L71">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72">
@@ -3219,37 +3336,37 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>0.00011945813938842832</v>
+        <v>0.00014923157772463728</v>
       </c>
       <c r="C72">
-        <v>2.2048415842348958e-05</v>
+        <v>7.0278054477383474e-06</v>
       </c>
       <c r="D72">
-        <v>0.019154557259526393</v>
+        <v>1.4452991044331629e-08</v>
       </c>
       <c r="E72">
-        <v>2.2200723773992469e-14</v>
+        <v>0.98679891051537938</v>
       </c>
       <c r="F72">
-        <v>3.8323883166353856e-11</v>
+        <v>0.00014635533227885103</v>
       </c>
       <c r="G72">
-        <v>0.00019563519600477065</v>
+        <v>0.0003546528187621739</v>
       </c>
       <c r="H72">
-        <v>0.0019772805969719282</v>
+        <v>5.7021573766017841e-07</v>
       </c>
       <c r="I72">
-        <v>5.122720962639579e-06</v>
+        <v>6.3052748129332966e-06</v>
       </c>
       <c r="J72">
-        <v>0.97852588391726492</v>
+        <v>0.012536931817004889</v>
       </c>
       <c r="K72">
-        <v>1.371569263470408e-08</v>
+        <v>1.8986070809746788e-10</v>
       </c>
       <c r="L72">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73">
@@ -3257,34 +3374,34 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>0.0010468750883664074</v>
+        <v>5.7626474798664605e-05</v>
       </c>
       <c r="C73">
-        <v>6.9397162129113181e-05</v>
+        <v>3.9822303067013333e-06</v>
       </c>
       <c r="D73">
-        <v>0.0098419379499810229</v>
+        <v>0.01907791656886813</v>
       </c>
       <c r="E73">
-        <v>8.4680308227722844e-14</v>
+        <v>2.2199092985188662e-14</v>
       </c>
       <c r="F73">
-        <v>1.8895538811039296e-08</v>
+        <v>2.4952435118050534e-12</v>
       </c>
       <c r="G73">
-        <v>0.00084994557319903366</v>
+        <v>5.5509808853705944e-05</v>
       </c>
       <c r="H73">
-        <v>0.0019223186302959766</v>
+        <v>4.6705426805014881e-05</v>
       </c>
       <c r="I73">
-        <v>2.5870197460721512e-05</v>
+        <v>2.9819135731545503e-05</v>
       </c>
       <c r="J73">
-        <v>0.98624350092616453</v>
+        <v>0.98072842047474751</v>
       </c>
       <c r="K73">
-        <v>1.3557677982268625e-07</v>
+        <v>1.9877371250358851e-08</v>
       </c>
       <c r="L73">
         <v>9</v>
@@ -3295,37 +3412,37 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>0.001805401156209618</v>
+        <v>0.00011283548504498832</v>
       </c>
       <c r="C74">
-        <v>0.00046011608308617959</v>
+        <v>7.6027565275259963e-06</v>
       </c>
       <c r="D74">
-        <v>0.0041033467840262067</v>
+        <v>2.2014855087990768e-08</v>
       </c>
       <c r="E74">
-        <v>4.8795822996435206e-14</v>
+        <v>0.98988997425750658</v>
       </c>
       <c r="F74">
-        <v>4.8795822996438033e-14</v>
+        <v>5.7645278668643528e-05</v>
       </c>
       <c r="G74">
-        <v>0.00013990001196400714</v>
+        <v>0.00025004273067677946</v>
       </c>
       <c r="H74">
-        <v>0.0099254753718719269</v>
+        <v>3.8170094270140232e-07</v>
       </c>
       <c r="I74">
-        <v>0.00037140392070633048</v>
+        <v>6.0039863729536004e-06</v>
       </c>
       <c r="J74">
-        <v>0.98318662239652277</v>
+        <v>0.0096754916583686908</v>
       </c>
       <c r="K74">
-        <v>7.7342755153059017e-06</v>
+        <v>1.3103613829677403e-10</v>
       </c>
       <c r="L74">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75">
@@ -3333,34 +3450,34 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>0.00070133231165634574</v>
+        <v>0.0011473092855380286</v>
       </c>
       <c r="C75">
-        <v>0.00020179922582251814</v>
+        <v>0.00092860882861956102</v>
       </c>
       <c r="D75">
-        <v>1.3730570292700118e-06</v>
+        <v>0.00012025064635878265</v>
       </c>
       <c r="E75">
-        <v>2.2195692335688789e-14</v>
+        <v>2.2201711193172078e-14</v>
       </c>
       <c r="F75">
-        <v>2.2195692335688789e-14</v>
+        <v>2.2201711193172078e-14</v>
       </c>
       <c r="G75">
-        <v>0.00012358394626799628</v>
+        <v>0.00015695703434126754</v>
       </c>
       <c r="H75">
-        <v>0.96358937320107074</v>
+        <v>0.99334411480439944</v>
       </c>
       <c r="I75">
-        <v>8.4876563080173805e-07</v>
+        <v>1.5339936059962961e-06</v>
       </c>
       <c r="J75">
-        <v>0.035381414489523352</v>
+        <v>0.0042984708732858642</v>
       </c>
       <c r="K75">
-        <v>2.7500295469454132e-07</v>
+        <v>2.7545338065865213e-06</v>
       </c>
       <c r="L75">
         <v>7</v>
@@ -3371,37 +3488,37 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>0.001040950942335718</v>
+        <v>9.8784840315294285e-05</v>
       </c>
       <c r="C76">
-        <v>0.99147226205166827</v>
+        <v>0.037202409226527046</v>
       </c>
       <c r="D76">
-        <v>9.0674364251317347e-05</v>
+        <v>0.0006125047209469542</v>
       </c>
       <c r="E76">
-        <v>2.2202146893356823e-14</v>
+        <v>2.2199308805491628e-14</v>
       </c>
       <c r="F76">
-        <v>3.7868039300233268e-11</v>
+        <v>5.4891220160164491e-07</v>
       </c>
       <c r="G76">
-        <v>0.0032913281039739025</v>
+        <v>0.00074629453303467846</v>
       </c>
       <c r="H76">
-        <v>1.0898956615518136e-06</v>
+        <v>1.2604371845612102e-06</v>
       </c>
       <c r="I76">
-        <v>2.1234827918519335e-07</v>
+        <v>3.9250752120678636e-08</v>
       </c>
       <c r="J76">
-        <v>5.0179625201944216e-06</v>
+        <v>5.2082230838959972e-09</v>
       </c>
       <c r="K76">
-        <v>0.0040984642934195487</v>
+        <v>0.96133815287079238</v>
       </c>
       <c r="L76">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77">
@@ -3409,37 +3526,37 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>0.00095208746326763704</v>
+        <v>0.00017440821794630483</v>
       </c>
       <c r="C77">
-        <v>0.9814251435241913</v>
+        <v>0.078059332243093457</v>
       </c>
       <c r="D77">
-        <v>0.00097662372162632318</v>
+        <v>0.0010163012895583036</v>
       </c>
       <c r="E77">
-        <v>2.2200048778630699e-14</v>
+        <v>2.2199715708490283e-14</v>
       </c>
       <c r="F77">
-        <v>1.021625904190029e-11</v>
+        <v>2.4032816154290898e-07</v>
       </c>
       <c r="G77">
-        <v>0.0037027613469005488</v>
+        <v>0.0014472353573240862</v>
       </c>
       <c r="H77">
-        <v>1.0899965026529551e-07</v>
+        <v>1.551058636829029e-06</v>
       </c>
       <c r="I77">
-        <v>3.9758974569862539e-07</v>
+        <v>4.3675130020156096e-08</v>
       </c>
       <c r="J77">
-        <v>2.8359081819988803e-06</v>
+        <v>4.0506911097244802e-09</v>
       </c>
       <c r="K77">
-        <v>0.012940041436197586</v>
+        <v>0.9193008837794362</v>
       </c>
       <c r="L77">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78">
@@ -3447,37 +3564,37 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>0.0046317781675491417</v>
+        <v>0.003981672533556282</v>
       </c>
       <c r="C78">
-        <v>3.9854660188279887e-06</v>
+        <v>0.97898580862370921</v>
       </c>
       <c r="D78">
-        <v>0.80585162605518557</v>
+        <v>0.0018003166105801398</v>
       </c>
       <c r="E78">
-        <v>4.8331062750053644e-13</v>
+        <v>6.5201888356079674e-14</v>
       </c>
       <c r="F78">
-        <v>2.2610451011794825e-07</v>
+        <v>4.7507349357089018e-11</v>
       </c>
       <c r="G78">
-        <v>0.034375453300860989</v>
+        <v>0.0078799294863076425</v>
       </c>
       <c r="H78">
-        <v>3.3783470641744122e-05</v>
+        <v>3.0962352471126636e-06</v>
       </c>
       <c r="I78">
-        <v>0.070308157067078214</v>
+        <v>1.4259134676104255e-06</v>
       </c>
       <c r="J78">
-        <v>0.084775337711482074</v>
+        <v>2.1775396221028176e-05</v>
       </c>
       <c r="K78">
-        <v>1.9652656189943783e-05</v>
+        <v>0.0073259751533385929</v>
       </c>
       <c r="L78">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
@@ -3485,37 +3602,37 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>0.0015863044926518856</v>
+        <v>0.00017743948818292287</v>
       </c>
       <c r="C79">
-        <v>3.8011753499592804e-05</v>
+        <v>0.0032716583778121758</v>
       </c>
       <c r="D79">
-        <v>0.079738848187771633</v>
+        <v>0.0019114471872695238</v>
       </c>
       <c r="E79">
-        <v>2.7025450347040734e-13</v>
+        <v>2.2201618146190026e-14</v>
       </c>
       <c r="F79">
-        <v>1.7035106128859389e-06</v>
+        <v>9.0516049297077003e-07</v>
       </c>
       <c r="G79">
-        <v>0.005582857991814961</v>
+        <v>0.00094141183730211378</v>
       </c>
       <c r="H79">
-        <v>0.0017486765592666473</v>
+        <v>4.8895559902556735e-07</v>
       </c>
       <c r="I79">
-        <v>5.0148526094906417e-05</v>
+        <v>1.532449334068653e-07</v>
       </c>
       <c r="J79">
-        <v>0.91125339959965568</v>
+        <v>5.6626482312667037e-09</v>
       </c>
       <c r="K79">
-        <v>4.9378361378223445e-08</v>
+        <v>0.99369649008573735</v>
       </c>
       <c r="L79">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80">
@@ -3523,37 +3640,37 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>0.001595899155356211</v>
+        <v>0.00061823501589104517</v>
       </c>
       <c r="C80">
-        <v>0.98107181054644321</v>
+        <v>0.00018716935011474104</v>
       </c>
       <c r="D80">
-        <v>0.00019677517310934337</v>
+        <v>3.5642832158601381e-05</v>
       </c>
       <c r="E80">
-        <v>2.9018672076297092e-14</v>
+        <v>2.220053183118763e-14</v>
       </c>
       <c r="F80">
-        <v>6.2578771326228752e-12</v>
+        <v>3.0821849538963796e-14</v>
       </c>
       <c r="G80">
-        <v>0.0075194185819829461</v>
+        <v>0.00014765451873787933</v>
       </c>
       <c r="H80">
-        <v>5.4692308791806958e-07</v>
+        <v>0.99005545938439521</v>
       </c>
       <c r="I80">
-        <v>2.1748403024836975e-06</v>
+        <v>5.4137629820154938e-07</v>
       </c>
       <c r="J80">
-        <v>1.9298941286510105e-05</v>
+        <v>0.0089550361136440989</v>
       </c>
       <c r="K80">
-        <v>0.0095940758321444962</v>
+        <v>2.6140870726394074e-07</v>
       </c>
       <c r="L80">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81">
@@ -3561,37 +3678,37 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>0.0018876169393337056</v>
+        <v>0.0030619867980927209</v>
       </c>
       <c r="C81">
-        <v>0.92801402538537403</v>
+        <v>0.00097511447096548982</v>
       </c>
       <c r="D81">
-        <v>0.0011754481415696542</v>
+        <v>0.0022462479926537052</v>
       </c>
       <c r="E81">
-        <v>4.3656325876446806e-14</v>
+        <v>3.7437851555493217e-14</v>
       </c>
       <c r="F81">
-        <v>8.2917034372979412e-12</v>
+        <v>3.7437851555493267e-14</v>
       </c>
       <c r="G81">
-        <v>0.0078259511552019288</v>
+        <v>0.00042208656409378168</v>
       </c>
       <c r="H81">
-        <v>6.5288704141766668e-07</v>
+        <v>0.98975685085345078</v>
       </c>
       <c r="I81">
-        <v>2.8382966963888676e-06</v>
+        <v>3.1118929377788211e-05</v>
       </c>
       <c r="J81">
-        <v>7.5153233698478286e-06</v>
+        <v>0.0034855127506429628</v>
       </c>
       <c r="K81">
-        <v>0.061085951863077748</v>
+        <v>2.1081640647899067e-05</v>
       </c>
       <c r="L81">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82">
@@ -3599,37 +3716,37 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>0.0010492097683312055</v>
+        <v>0.00157831049411291</v>
       </c>
       <c r="C82">
-        <v>0.00019732910132039421</v>
+        <v>0.98272979417726425</v>
       </c>
       <c r="D82">
-        <v>4.0256992015150989e-05</v>
+        <v>0.00068917898623043492</v>
       </c>
       <c r="E82">
-        <v>2.2201047033163284e-14</v>
+        <v>3.6976856997401532e-14</v>
       </c>
       <c r="F82">
-        <v>1.4149043200859963e-13</v>
+        <v>2.8507886502784876e-11</v>
       </c>
       <c r="G82">
-        <v>0.00012820119294730989</v>
+        <v>0.0075795255254518384</v>
       </c>
       <c r="H82">
-        <v>0.99235262107371669</v>
+        <v>2.5999079979190235e-07</v>
       </c>
       <c r="I82">
-        <v>2.822992343663632e-07</v>
+        <v>1.3601446184856927e-06</v>
       </c>
       <c r="J82">
-        <v>0.0062317086215551969</v>
+        <v>1.1662849528772965e-05</v>
       </c>
       <c r="K82">
-        <v>3.9095071594495529e-07</v>
+        <v>0.0074099078034486733</v>
       </c>
       <c r="L82">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
@@ -3637,37 +3754,37 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>0.0012510291854447735</v>
+        <v>0.00012589021473839414</v>
       </c>
       <c r="C83">
-        <v>0.99217857019084887</v>
+        <v>1.7538346934360926e-05</v>
       </c>
       <c r="D83">
-        <v>0.00072168880369550322</v>
+        <v>3.1520500770546475e-08</v>
       </c>
       <c r="E83">
-        <v>2.5139293765606976e-14</v>
+        <v>0.9882360313497659</v>
       </c>
       <c r="F83">
-        <v>3.2931265364449894e-12</v>
+        <v>4.1878723525128917e-05</v>
       </c>
       <c r="G83">
-        <v>0.0044361783214380349</v>
+        <v>0.00020416530628558727</v>
       </c>
       <c r="H83">
-        <v>3.7189557518394986e-07</v>
+        <v>2.5022361605922592e-06</v>
       </c>
       <c r="I83">
-        <v>3.0799292021644365e-07</v>
+        <v>9.7759292761528181e-07</v>
       </c>
       <c r="J83">
-        <v>1.3518478846306473e-05</v>
+        <v>0.011370984639191921</v>
       </c>
       <c r="K83">
-        <v>0.0013983351279129321</v>
+        <v>6.9969987323618276e-11</v>
       </c>
       <c r="L83">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84">
@@ -3675,37 +3792,37 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>0.00077080979751450107</v>
+        <v>0.0014839747308665835</v>
       </c>
       <c r="C84">
-        <v>0.96489829905974245</v>
+        <v>0.00041021335029982651</v>
       </c>
       <c r="D84">
-        <v>0.00065075996662880423</v>
+        <v>0.00026735201222443262</v>
       </c>
       <c r="E84">
-        <v>2.2201257581902704e-14</v>
+        <v>2.2200544339672177e-14</v>
       </c>
       <c r="F84">
-        <v>9.3161659829646822e-12</v>
+        <v>2.2200544339672177e-14</v>
       </c>
       <c r="G84">
-        <v>0.0027486089989314636</v>
+        <v>0.00025195335361536032</v>
       </c>
       <c r="H84">
-        <v>8.2014401767892748e-08</v>
+        <v>0.99474258371336133</v>
       </c>
       <c r="I84">
-        <v>7.2195205855649978e-07</v>
+        <v>1.617797278619081e-06</v>
       </c>
       <c r="J84">
-        <v>2.7201439243708684e-06</v>
+        <v>0.0028396490347186616</v>
       </c>
       <c r="K84">
-        <v>0.030927998057459601</v>
+        <v>2.6560075907113923e-06</v>
       </c>
       <c r="L84">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85">
@@ -3713,37 +3830,37 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>0.00094199606091931957</v>
+        <v>0.00018378711069509901</v>
       </c>
       <c r="C85">
-        <v>0.98712116679973361</v>
+        <v>2.6317331134466742e-05</v>
       </c>
       <c r="D85">
-        <v>0.0011277458719912866</v>
+        <v>0.011435212479112304</v>
       </c>
       <c r="E85">
-        <v>2.2203750185813387e-14</v>
+        <v>2.2200121766017235e-14</v>
       </c>
       <c r="F85">
-        <v>1.4007944662158362e-11</v>
+        <v>2.0242298576343037e-11</v>
       </c>
       <c r="G85">
-        <v>0.0059628197168622573</v>
+        <v>0.00036631480350458992</v>
       </c>
       <c r="H85">
-        <v>1.1425968854511548e-07</v>
+        <v>0.0021061693482644136</v>
       </c>
       <c r="I85">
-        <v>4.8600915661474237e-07</v>
+        <v>4.7402724379249422e-06</v>
       </c>
       <c r="J85">
-        <v>4.8005123945323127e-06</v>
+        <v>0.98587743550454743</v>
       </c>
       <c r="K85">
-        <v>0.004840870755223544</v>
+        <v>2.3130039173941923e-08</v>
       </c>
       <c r="L85">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86">
@@ -3751,37 +3868,37 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>0.0024480406815646327</v>
+        <v>0.0018851313339524223</v>
       </c>
       <c r="C86">
-        <v>0.98819778712112338</v>
+        <v>0.00093585956141957255</v>
       </c>
       <c r="D86">
-        <v>0.0012746674107147868</v>
+        <v>0.00023814648432481748</v>
       </c>
       <c r="E86">
-        <v>3.6409384139239772e-14</v>
+        <v>2.2199965445379605e-14</v>
       </c>
       <c r="F86">
-        <v>6.4911118333217977e-12</v>
+        <v>2.2199965445379605e-14</v>
       </c>
       <c r="G86">
-        <v>0.0040063452794748058</v>
+        <v>0.00020171502485111651</v>
       </c>
       <c r="H86">
-        <v>6.4281026165217955e-07</v>
+        <v>0.99262941350877631</v>
       </c>
       <c r="I86">
-        <v>9.0709385378852606e-07</v>
+        <v>3.0558870433676732e-06</v>
       </c>
       <c r="J86">
-        <v>2.4958290715582867e-05</v>
+        <v>0.0040939981182260797</v>
       </c>
       <c r="K86">
-        <v>0.0040466513057638015</v>
+        <v>1.2680081362016282e-05</v>
       </c>
       <c r="L86">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87">
@@ -3789,37 +3906,37 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>0.00095149481288476861</v>
+        <v>6.7153272643666987e-05</v>
       </c>
       <c r="C87">
-        <v>0.99155364980249883</v>
+        <v>7.2901429588208995e-06</v>
       </c>
       <c r="D87">
-        <v>0.00013424072819065148</v>
+        <v>0.0096194653449836361</v>
       </c>
       <c r="E87">
-        <v>2.2199935230923081e-14</v>
+        <v>2.2200086001116913e-14</v>
       </c>
       <c r="F87">
-        <v>8.2243359337804431e-10</v>
+        <v>7.2582751692551358e-12</v>
       </c>
       <c r="G87">
-        <v>0.0039731077198003634</v>
+        <v>0.00012164260924400915</v>
       </c>
       <c r="H87">
-        <v>4.4783823038374696e-07</v>
+        <v>7.0254982519229572e-05</v>
       </c>
       <c r="I87">
-        <v>1.5502873113417267e-07</v>
+        <v>2.1426809279222725e-05</v>
       </c>
       <c r="J87">
-        <v>6.2897078460713523e-06</v>
+        <v>0.99009273271445253</v>
       </c>
       <c r="K87">
-        <v>0.0033806135393619351</v>
+        <v>3.4116638335118802e-08</v>
       </c>
       <c r="L87">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88">
@@ -3827,37 +3944,37 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>0.00018212929437282712</v>
+        <v>0.032437904731076918</v>
       </c>
       <c r="C88">
-        <v>1.2577713447412699e-06</v>
+        <v>0.0074166321803298711</v>
       </c>
       <c r="D88">
-        <v>0.9979029783862583</v>
+        <v>0.002412368297692783</v>
       </c>
       <c r="E88">
-        <v>2.2201235006012197e-14</v>
+        <v>2.5047028029290629e-13</v>
       </c>
       <c r="F88">
-        <v>7.6440404083055745e-10</v>
+        <v>2.504702802929221e-13</v>
       </c>
       <c r="G88">
-        <v>0.0010392223322213763</v>
+        <v>0.010669244891347001</v>
       </c>
       <c r="H88">
-        <v>1.0733550572470158e-07</v>
+        <v>0.047064713794137479</v>
       </c>
       <c r="I88">
-        <v>0.00023461605834410726</v>
+        <v>0.0052019187076763392</v>
       </c>
       <c r="J88">
-        <v>0.00063961257748721963</v>
+        <v>0.00012904452310591731</v>
       </c>
       <c r="K88">
-        <v>7.5480039420019903e-08</v>
+        <v>0.89466817287413281</v>
       </c>
       <c r="L88">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89">
@@ -3865,37 +3982,37 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>0.00045135130492171023</v>
+        <v>0.00010421893546911935</v>
       </c>
       <c r="C89">
-        <v>7.9572806441666026e-05</v>
+        <v>7.0239092566116263e-07</v>
       </c>
       <c r="D89">
-        <v>0.0046788933550939559</v>
+        <v>1.5115327482955349e-07</v>
       </c>
       <c r="E89">
-        <v>2.4690067798444906e-14</v>
+        <v>0.9964171448175656</v>
       </c>
       <c r="F89">
-        <v>2.4690067798461883e-14</v>
+        <v>1.2707362312589444e-05</v>
       </c>
       <c r="G89">
-        <v>0.00012917243696805935</v>
+        <v>0.00029930919969599226</v>
       </c>
       <c r="H89">
-        <v>0.0019702503507351928</v>
+        <v>3.5211109284647204e-09</v>
       </c>
       <c r="I89">
-        <v>6.8730973140891546e-05</v>
+        <v>0.00047245099324621977</v>
       </c>
       <c r="J89">
-        <v>0.99262149753298456</v>
+        <v>0.0026933115566741494</v>
       </c>
       <c r="K89">
-        <v>5.312396646209718e-07</v>
+        <v>6.9725041402285773e-11</v>
       </c>
       <c r="L89">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90">
@@ -3903,37 +4020,37 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>0.00020814612746174633</v>
+        <v>0.002214779609285609</v>
       </c>
       <c r="C90">
-        <v>7.7668139083893903e-06</v>
+        <v>0.00028491949014626007</v>
       </c>
       <c r="D90">
-        <v>0.016024803195440866</v>
+        <v>0.00031342078093900299</v>
       </c>
       <c r="E90">
-        <v>2.2229255998332773e-14</v>
+        <v>2.2200861454573444e-14</v>
       </c>
       <c r="F90">
-        <v>8.5005792074954451e-12</v>
+        <v>1.7089639891614305e-12</v>
       </c>
       <c r="G90">
-        <v>0.00018213657537713819</v>
+        <v>0.00025087928095322658</v>
       </c>
       <c r="H90">
-        <v>0.00088155072052781096</v>
+        <v>0.98170753337279038</v>
       </c>
       <c r="I90">
-        <v>2.4057769467014496e-05</v>
+        <v>9.8366924160166753e-07</v>
       </c>
       <c r="J90">
-        <v>0.982671425700121</v>
+        <v>0.015225552898781211</v>
       </c>
       <c r="K90">
-        <v>1.1308917318415566e-07</v>
+        <v>1.9308961314058059e-06</v>
       </c>
       <c r="L90">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91">
@@ -3941,37 +4058,37 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>0.00019466743306230909</v>
+        <v>0.00022980424514437746</v>
       </c>
       <c r="C91">
-        <v>4.4719777355352333e-06</v>
+        <v>4.1027977237940564e-06</v>
       </c>
       <c r="D91">
-        <v>0.078739202541385639</v>
+        <v>6.2174661168990432e-08</v>
       </c>
       <c r="E91">
-        <v>2.5505782757449933e-14</v>
+        <v>0.99270497828992232</v>
       </c>
       <c r="F91">
-        <v>5.6511539249069269e-11</v>
+        <v>0.00020912877821155265</v>
       </c>
       <c r="G91">
-        <v>0.00036952001145084242</v>
+        <v>0.00025348479722357221</v>
       </c>
       <c r="H91">
-        <v>0.00041166447405619481</v>
+        <v>8.1269345888479077e-07</v>
       </c>
       <c r="I91">
-        <v>1.8082308174283507e-05</v>
+        <v>1.081231754634137e-05</v>
       </c>
       <c r="J91">
-        <v>0.92026234815293628</v>
+        <v>0.006586813370608101</v>
       </c>
       <c r="K91">
-        <v>4.3044661822750584e-08</v>
+        <v>5.3549978262631004e-10</v>
       </c>
       <c r="L91">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92">
@@ -3979,34 +4096,34 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>0.00038689241976065956</v>
+        <v>0.0032371228615775565</v>
       </c>
       <c r="C92">
-        <v>8.0535060298516482e-06</v>
+        <v>3.5938573649891715e-05</v>
       </c>
       <c r="D92">
-        <v>0.011710155917127306</v>
+        <v>0.004579877908343041</v>
       </c>
       <c r="E92">
-        <v>2.7571186433054434e-14</v>
+        <v>4.2221871484942964e-14</v>
       </c>
       <c r="F92">
-        <v>1.0518777167260761e-11</v>
+        <v>2.2494236265370636e-05</v>
       </c>
       <c r="G92">
-        <v>0.00017882610696964219</v>
+        <v>6.3525890342125193e-05</v>
       </c>
       <c r="H92">
-        <v>0.0048404045921432168</v>
+        <v>8.6572900527559342e-08</v>
       </c>
       <c r="I92">
-        <v>7.8684675684434708e-05</v>
+        <v>7.47304202439793e-08</v>
       </c>
       <c r="J92">
-        <v>0.98279675052175552</v>
+        <v>0.99206087922641684</v>
       </c>
       <c r="K92">
-        <v>2.3224998300580352e-07</v>
+        <v>4.2221871484943141e-14</v>
       </c>
       <c r="L92">
         <v>9</v>
@@ -4017,37 +4134,37 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>0.0001830307588472162</v>
+        <v>0.0012032046047202357</v>
       </c>
       <c r="C93">
-        <v>0.61467556767873921</v>
+        <v>0.00019425724926659782</v>
       </c>
       <c r="D93">
-        <v>0.00048701096469201997</v>
+        <v>4.0391720939650568e-05</v>
       </c>
       <c r="E93">
-        <v>2.220360935159676e-14</v>
+        <v>2.2200822555343616e-14</v>
       </c>
       <c r="F93">
-        <v>1.4946012521025356e-07</v>
+        <v>2.2200822555343616e-14</v>
       </c>
       <c r="G93">
-        <v>0.0006358431006869633</v>
+        <v>7.1250587418345422e-05</v>
       </c>
       <c r="H93">
-        <v>2.0544221672073709e-07</v>
+        <v>0.98900085585061515</v>
       </c>
       <c r="I93">
-        <v>1.0159677459182263e-08</v>
+        <v>5.3396009107312304e-07</v>
       </c>
       <c r="J93">
-        <v>6.5361960207248673e-09</v>
+        <v>0.0094889916238536324</v>
       </c>
       <c r="K93">
-        <v>0.38401817589879678</v>
+        <v>5.1440305096225849e-07</v>
       </c>
       <c r="L93">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94">
@@ -4055,37 +4172,37 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>0.00031964901236326186</v>
+        <v>0.00091111597378308183</v>
       </c>
       <c r="C94">
-        <v>4.919651119138317e-06</v>
+        <v>0.00022927204387476323</v>
       </c>
       <c r="D94">
-        <v>0.014756470725899556</v>
+        <v>0.00086020738153601121</v>
       </c>
       <c r="E94">
-        <v>4.6752690167032573e-14</v>
+        <v>2.2200940192024715e-14</v>
       </c>
       <c r="F94">
-        <v>2.4609167188697387e-08</v>
+        <v>2.2200940192024715e-14</v>
       </c>
       <c r="G94">
-        <v>0.00049004424334364214</v>
+        <v>0.00011214152152719951</v>
       </c>
       <c r="H94">
-        <v>0.00011481482460877356</v>
+        <v>0.98596579954421026</v>
       </c>
       <c r="I94">
-        <v>6.8591562963351725e-05</v>
+        <v>1.1945803645531374e-06</v>
       </c>
       <c r="J94">
-        <v>0.98424540713862496</v>
+        <v>0.011919721062442398</v>
       </c>
       <c r="K94">
-        <v>7.8231863394408783e-08</v>
+        <v>5.4789221737455142e-07</v>
       </c>
       <c r="L94">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95">
@@ -4093,37 +4210,37 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>0.00086271752728709163</v>
+        <v>0.020283018099801025</v>
       </c>
       <c r="C95">
-        <v>0.00013567038771977372</v>
+        <v>0.0016121547920812662</v>
       </c>
       <c r="D95">
-        <v>0.00021563811348995719</v>
+        <v>0.014421173004873384</v>
       </c>
       <c r="E95">
-        <v>2.2200637468601981e-14</v>
+        <v>3.3362944347891745e-13</v>
       </c>
       <c r="F95">
-        <v>2.2200637468601981e-14</v>
+        <v>0.032368029081142391</v>
       </c>
       <c r="G95">
-        <v>0.00011668219381115792</v>
+        <v>0.00064459645440174528</v>
       </c>
       <c r="H95">
-        <v>0.98597205874932747</v>
+        <v>1.8413160121576723e-06</v>
       </c>
       <c r="I95">
-        <v>5.1724587341162632e-07</v>
+        <v>5.9150197365227628e-07</v>
       </c>
       <c r="J95">
-        <v>0.012696535378220596</v>
+        <v>0.93066859574904726</v>
       </c>
       <c r="K95">
-        <v>1.8040422627171184e-07</v>
+        <v>3.3362944347891689e-13</v>
       </c>
       <c r="L95">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96">
@@ -4131,37 +4248,37 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>0.0032354063992319541</v>
+        <v>0.00021070681529667711</v>
       </c>
       <c r="C96">
-        <v>0.00083077012868934303</v>
+        <v>3.8171773407911246e-06</v>
       </c>
       <c r="D96">
-        <v>0.0075192816984514322</v>
+        <v>2.7743799510337831e-07</v>
       </c>
       <c r="E96">
-        <v>7.4237511630466781e-14</v>
+        <v>0.99709466270114655</v>
       </c>
       <c r="F96">
-        <v>7.4237511630474076e-14</v>
+        <v>8.4671677382501416e-07</v>
       </c>
       <c r="G96">
-        <v>0.00035543872467349501</v>
+        <v>0.00090682531528809218</v>
       </c>
       <c r="H96">
-        <v>0.011173636443938024</v>
+        <v>9.5924706938944095e-08</v>
       </c>
       <c r="I96">
-        <v>0.00027964552739490549</v>
+        <v>0.00050928433766334676</v>
       </c>
       <c r="J96">
-        <v>0.97659852993355134</v>
+        <v>0.0012734820602798434</v>
       </c>
       <c r="K96">
-        <v>7.2911439211539236e-06</v>
+        <v>1.5135086121194432e-09</v>
       </c>
       <c r="L96">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97">
@@ -4169,34 +4286,34 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>7.4477093175803036e-05</v>
+        <v>8.4913357962529334e-05</v>
       </c>
       <c r="C97">
-        <v>1.5532064286977996e-05</v>
+        <v>6.9571679575335102e-06</v>
       </c>
       <c r="D97">
-        <v>0.022574967548111859</v>
+        <v>0.012537931788945498</v>
       </c>
       <c r="E97">
-        <v>2.2198602552565761e-14</v>
+        <v>2.2200252130629624e-14</v>
       </c>
       <c r="F97">
-        <v>6.8185649572327389e-14</v>
+        <v>1.2320909615623865e-10</v>
       </c>
       <c r="G97">
-        <v>8.4904240946754165e-05</v>
+        <v>0.00026992047343584038</v>
       </c>
       <c r="H97">
-        <v>0.00017300865908018769</v>
+        <v>0.00031647352123412417</v>
       </c>
       <c r="I97">
-        <v>1.4233108659685232e-05</v>
+        <v>7.010588835834948e-06</v>
       </c>
       <c r="J97">
-        <v>0.97706271165406755</v>
+        <v>0.9867767834150587</v>
       </c>
       <c r="K97">
-        <v>1.6563158074160723e-07</v>
+        <v>9.5633387137674235e-09</v>
       </c>
       <c r="L97">
         <v>9</v>
@@ -4207,34 +4324,34 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>0.00017743906474718851</v>
+        <v>0.00042768341419149218</v>
       </c>
       <c r="C98">
-        <v>2.8752310174015811e-06</v>
+        <v>5.3247553530994853e-06</v>
       </c>
       <c r="D98">
-        <v>0.033891189449319445</v>
+        <v>0.064506178776836759</v>
       </c>
       <c r="E98">
-        <v>2.2206154869070539e-14</v>
+        <v>4.9833361398417408e-14</v>
       </c>
       <c r="F98">
-        <v>1.5451378951993753e-11</v>
+        <v>1.7744049807767978e-10</v>
       </c>
       <c r="G98">
-        <v>0.00019717841975470105</v>
+        <v>0.00067340746956774612</v>
       </c>
       <c r="H98">
-        <v>0.00064433579760354409</v>
+        <v>0.00078272333021757435</v>
       </c>
       <c r="I98">
-        <v>5.177755364417833e-05</v>
+        <v>8.1591528179028982e-05</v>
       </c>
       <c r="J98">
-        <v>0.96503507473038874</v>
+        <v>0.93352293744327275</v>
       </c>
       <c r="K98">
-        <v>1.2973805117941894e-07</v>
+        <v>1.5310489111833947e-07</v>
       </c>
       <c r="L98">
         <v>9</v>
@@ -4245,37 +4362,37 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>0.00012443033880070816</v>
+        <v>0.00011945813938842832</v>
       </c>
       <c r="C99">
-        <v>2.9537565449929021e-06</v>
+        <v>2.2048415842348958e-05</v>
       </c>
       <c r="D99">
-        <v>7.9900417778808703e-08</v>
+        <v>0.019154557259526393</v>
       </c>
       <c r="E99">
-        <v>0.99220217239697961</v>
+        <v>2.2200723773992469e-14</v>
       </c>
       <c r="F99">
-        <v>0.00016050786888142051</v>
+        <v>3.8323883166353856e-11</v>
       </c>
       <c r="G99">
-        <v>0.00018967349123199024</v>
+        <v>0.00019563519600477065</v>
       </c>
       <c r="H99">
-        <v>3.2188595636287048e-07</v>
+        <v>0.0019772805969719282</v>
       </c>
       <c r="I99">
-        <v>6.5973194489836549e-06</v>
+        <v>5.122720962639579e-06</v>
       </c>
       <c r="J99">
-        <v>0.0073132629707002191</v>
+        <v>0.97852588391726492</v>
       </c>
       <c r="K99">
-        <v>7.1037835673921214e-11</v>
+        <v>1.371569263470408e-08</v>
       </c>
       <c r="L99">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100">
@@ -4283,34 +4400,34 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>0.00015063350577674561</v>
+        <v>0.0010468750883664074</v>
       </c>
       <c r="C100">
-        <v>8.04363292651129e-06</v>
+        <v>6.9397162129113181e-05</v>
       </c>
       <c r="D100">
-        <v>0.017236085269308324</v>
+        <v>0.0098419379499810229</v>
       </c>
       <c r="E100">
-        <v>2.220009087066862e-14</v>
+        <v>8.4680308227722844e-14</v>
       </c>
       <c r="F100">
-        <v>3.5489346678456277e-08</v>
+        <v>1.8895538811039296e-08</v>
       </c>
       <c r="G100">
-        <v>0.00020317874036231335</v>
+        <v>0.00084994557319903366</v>
       </c>
       <c r="H100">
-        <v>8.5430365625438983e-05</v>
+        <v>0.0019223186302959766</v>
       </c>
       <c r="I100">
-        <v>4.0499013563664385e-06</v>
+        <v>2.5870197460721512e-05</v>
       </c>
       <c r="J100">
-        <v>0.98231253759591752</v>
+        <v>0.98624350092616453</v>
       </c>
       <c r="K100">
-        <v>5.4993579549853176e-09</v>
+        <v>1.3557677982268625e-07</v>
       </c>
       <c r="L100">
         <v>9</v>
@@ -4321,34 +4438,34 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>0.00018680298183406947</v>
+        <v>0.001805401156209618</v>
       </c>
       <c r="C101">
-        <v>9.1302596966547742e-06</v>
+        <v>0.00046011608308617959</v>
       </c>
       <c r="D101">
-        <v>0.012171941615393903</v>
+        <v>0.0041033467840262067</v>
       </c>
       <c r="E101">
-        <v>2.2200117386186323e-14</v>
+        <v>4.8795822996435206e-14</v>
       </c>
       <c r="F101">
-        <v>3.7439746939108474e-11</v>
+        <v>4.8795822996438033e-14</v>
       </c>
       <c r="G101">
-        <v>0.00017700283857983678</v>
+        <v>0.00013990001196400714</v>
       </c>
       <c r="H101">
-        <v>0.00045198783493307943</v>
+        <v>0.0099254753718719269</v>
       </c>
       <c r="I101">
-        <v>9.8884255143704491e-06</v>
+        <v>0.00037140392070633048</v>
       </c>
       <c r="J101">
-        <v>0.98699314745098299</v>
+        <v>0.98318662239652277</v>
       </c>
       <c r="K101">
-        <v>9.855560317378186e-08</v>
+        <v>7.7342755153059017e-06</v>
       </c>
       <c r="L101">
         <v>9</v>
@@ -4359,37 +4476,37 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>0.0016984671529566282</v>
+        <v>0.00012011287914438239</v>
       </c>
       <c r="C102">
-        <v>7.8021023423551256e-05</v>
+        <v>2.2726857459976106e-06</v>
       </c>
       <c r="D102">
-        <v>0.00028407850677845812</v>
+        <v>2.2248305314634763e-06</v>
       </c>
       <c r="E102">
-        <v>2.2201165773425524e-14</v>
+        <v>0.99192555369065316</v>
       </c>
       <c r="F102">
-        <v>2.2201165773425524e-14</v>
+        <v>6.4568729431471872e-10</v>
       </c>
       <c r="G102">
-        <v>0.00015391303271104098</v>
+        <v>0.00051578815269803021</v>
       </c>
       <c r="H102">
-        <v>0.99564306598961838</v>
+        <v>8.8271089782777864e-08</v>
       </c>
       <c r="I102">
-        <v>4.4903209388336623e-07</v>
+        <v>0.0053909823798024741</v>
       </c>
       <c r="J102">
-        <v>0.0021409739250341517</v>
+        <v>0.002042956100900739</v>
       </c>
       <c r="K102">
-        <v>1.0313373395889615e-06</v>
+        <v>2.0363746846795088e-08</v>
       </c>
       <c r="L102">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103">
@@ -4397,37 +4514,37 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>0.00047682072205502713</v>
+        <v>0.00070133231165634574</v>
       </c>
       <c r="C103">
-        <v>2.6309672058194379e-05</v>
+        <v>0.00020179922582251814</v>
       </c>
       <c r="D103">
-        <v>0.01171438307777598</v>
+        <v>1.3730570292700118e-06</v>
       </c>
       <c r="E103">
-        <v>4.3662604241247484e-14</v>
+        <v>2.2195692335688789e-14</v>
       </c>
       <c r="F103">
-        <v>5.5293925463966537e-11</v>
+        <v>2.2195692335688789e-14</v>
       </c>
       <c r="G103">
-        <v>0.00083276887082457673</v>
+        <v>0.00012358394626799628</v>
       </c>
       <c r="H103">
-        <v>0.002507597258459201</v>
+        <v>0.96358937320107074</v>
       </c>
       <c r="I103">
-        <v>3.3016933589518657e-05</v>
+        <v>8.4876563080173805e-07</v>
       </c>
       <c r="J103">
-        <v>0.98440894053455552</v>
+        <v>0.035381414489523352</v>
       </c>
       <c r="K103">
-        <v>1.6287534439089169e-07</v>
+        <v>2.7500295469454132e-07</v>
       </c>
       <c r="L103">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104">
@@ -4435,37 +4552,37 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>0.0015307039933770215</v>
+        <v>0.001040950942335718</v>
       </c>
       <c r="C104">
-        <v>0.00042021312812610023</v>
+        <v>0.99147226205166827</v>
       </c>
       <c r="D104">
-        <v>0.0013098151870454802</v>
+        <v>9.0674364251317347e-05</v>
       </c>
       <c r="E104">
-        <v>3.4141854763933602e-14</v>
+        <v>2.2202146893356823e-14</v>
       </c>
       <c r="F104">
-        <v>3.4141854763957388e-14</v>
+        <v>3.7868039300233268e-11</v>
       </c>
       <c r="G104">
-        <v>0.00044973048964612916</v>
+        <v>0.0032913281039739025</v>
       </c>
       <c r="H104">
-        <v>0.99173679125701342</v>
+        <v>1.0898956615518136e-06</v>
       </c>
       <c r="I104">
-        <v>1.6689607310778402e-06</v>
+        <v>2.1234827918519335e-07</v>
       </c>
       <c r="J104">
-        <v>0.0045493131283779317</v>
+        <v>5.0179625201944216e-06</v>
       </c>
       <c r="K104">
-        <v>1.7638556145248122e-06</v>
+        <v>0.0040984642934195487</v>
       </c>
       <c r="L104">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105">
@@ -4473,37 +4590,37 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>0.00024670474355815162</v>
+        <v>0.00095208746326763704</v>
       </c>
       <c r="C105">
-        <v>5.323750269880256e-05</v>
+        <v>0.9814251435241913</v>
       </c>
       <c r="D105">
-        <v>0.0011168192310035264</v>
+        <v>0.00097662372162632318</v>
       </c>
       <c r="E105">
-        <v>2.2202099553448128e-14</v>
+        <v>2.2200048778630699e-14</v>
       </c>
       <c r="F105">
-        <v>1.8379191245086717e-11</v>
+        <v>1.021625904190029e-11</v>
       </c>
       <c r="G105">
-        <v>0.0002902012481421388</v>
+        <v>0.0037027613469005488</v>
       </c>
       <c r="H105">
-        <v>0.0012149411142712331</v>
+        <v>1.0899965026529551e-07</v>
       </c>
       <c r="I105">
-        <v>8.9692533132222015e-06</v>
+        <v>3.9758974569862539e-07</v>
       </c>
       <c r="J105">
-        <v>0.99706905823065461</v>
+        <v>2.8359081819988803e-06</v>
       </c>
       <c r="K105">
-        <v>6.8657956947004134e-08</v>
+        <v>0.012940041436197586</v>
       </c>
       <c r="L105">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106">
@@ -4511,37 +4628,37 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>0.002583322257736392</v>
+        <v>0.0046317781675491417</v>
       </c>
       <c r="C106">
-        <v>0.0013411746894762227</v>
+        <v>3.9854660188279887e-06</v>
       </c>
       <c r="D106">
-        <v>0.0054782914302446539</v>
+        <v>0.80585162605518557</v>
       </c>
       <c r="E106">
-        <v>5.2626117863404497e-14</v>
+        <v>4.8331062750053644e-13</v>
       </c>
       <c r="F106">
-        <v>5.2626117863409886e-14</v>
+        <v>2.2610451011794825e-07</v>
       </c>
       <c r="G106">
-        <v>0.00037171291477693119</v>
+        <v>0.034375453300860989</v>
       </c>
       <c r="H106">
-        <v>0.0099741251658091584</v>
+        <v>3.3783470641744122e-05</v>
       </c>
       <c r="I106">
-        <v>0.00026548646354999494</v>
+        <v>0.070308157067078214</v>
       </c>
       <c r="J106">
-        <v>0.97998086780864146</v>
+        <v>0.084775337711482074</v>
       </c>
       <c r="K106">
-        <v>5.0192696599578686e-06</v>
+        <v>1.9652656189943783e-05</v>
       </c>
       <c r="L106">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107">
@@ -4549,37 +4666,37 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>0.04873982292801949</v>
+        <v>0.0015863044926518856</v>
       </c>
       <c r="C107">
-        <v>0.66173953562981302</v>
+        <v>3.8011753499592804e-05</v>
       </c>
       <c r="D107">
-        <v>0.019974991018423982</v>
+        <v>0.079738848187771633</v>
       </c>
       <c r="E107">
-        <v>5.4300736269467584e-13</v>
+        <v>2.7025450347040734e-13</v>
       </c>
       <c r="F107">
-        <v>7.7609660077258632e-11</v>
+        <v>1.7035106128859389e-06</v>
       </c>
       <c r="G107">
-        <v>0.077045864823287721</v>
+        <v>0.005582857991814961</v>
       </c>
       <c r="H107">
-        <v>0.00014570541318487598</v>
+        <v>0.0017486765592666473</v>
       </c>
       <c r="I107">
-        <v>0.00022228261208667014</v>
+        <v>5.0148526094906417e-05</v>
       </c>
       <c r="J107">
-        <v>0.00321328216800815</v>
+        <v>0.91125339959965568</v>
       </c>
       <c r="K107">
-        <v>0.18891851532902351</v>
+        <v>4.9378361378223445e-08</v>
       </c>
       <c r="L107">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108">
@@ -4587,34 +4704,34 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>0.008403931539787449</v>
+        <v>0.001595899155356211</v>
       </c>
       <c r="C108">
-        <v>0.94340230619940302</v>
+        <v>0.98107181054644321</v>
       </c>
       <c r="D108">
-        <v>0.0084789974150395898</v>
+        <v>0.00019677517310934337</v>
       </c>
       <c r="E108">
-        <v>1.1715664893125802e-13</v>
+        <v>2.9018672076297092e-14</v>
       </c>
       <c r="F108">
-        <v>1.8164538116505909e-11</v>
+        <v>6.2578771326228752e-12</v>
       </c>
       <c r="G108">
-        <v>0.01310350162120234</v>
+        <v>0.0075194185819829461</v>
       </c>
       <c r="H108">
-        <v>4.5698377668045914e-06</v>
+        <v>5.4692308791806958e-07</v>
       </c>
       <c r="I108">
-        <v>6.7797704439027232e-06</v>
+        <v>2.1748403024836975e-06</v>
       </c>
       <c r="J108">
-        <v>6.2349167429621988e-05</v>
+        <v>1.9298941286510105e-05</v>
       </c>
       <c r="K108">
-        <v>0.026537564430645613</v>
+        <v>0.0095940758321444962</v>
       </c>
       <c r="L108">
         <v>2</v>
@@ -4625,37 +4742,37 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>0.00046565292280674556</v>
+        <v>0.0018876169393337056</v>
       </c>
       <c r="C109">
-        <v>2.3080390691908119e-05</v>
+        <v>0.92801402538537403</v>
       </c>
       <c r="D109">
-        <v>0.042888167596064543</v>
+        <v>0.0011754481415696542</v>
       </c>
       <c r="E109">
-        <v>6.5513576766618906e-14</v>
+        <v>4.3656325876446806e-14</v>
       </c>
       <c r="F109">
-        <v>3.2247732269904298e-11</v>
+        <v>8.2917034372979412e-12</v>
       </c>
       <c r="G109">
-        <v>0.00067807409172518601</v>
+        <v>0.0078259511552019288</v>
       </c>
       <c r="H109">
-        <v>0.0031714952415575156</v>
+        <v>6.5288704141766668e-07</v>
       </c>
       <c r="I109">
-        <v>3.9104897432792891e-05</v>
+        <v>2.8382966963888676e-06</v>
       </c>
       <c r="J109">
-        <v>0.95273430789406077</v>
+        <v>7.5153233698478286e-06</v>
       </c>
       <c r="K109">
-        <v>1.1693334728999948e-07</v>
+        <v>0.061085951863077748</v>
       </c>
       <c r="L109">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110">
@@ -4663,37 +4780,37 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>6.5256264656124761e-05</v>
+        <v>0.0010492097683312055</v>
       </c>
       <c r="C110">
-        <v>7.3026832218399725e-07</v>
+        <v>0.00019732910132039421</v>
       </c>
       <c r="D110">
-        <v>0.033772304756674157</v>
+        <v>4.0256992015150989e-05</v>
       </c>
       <c r="E110">
-        <v>2.2200238541820401e-14</v>
+        <v>2.2201047033163284e-14</v>
       </c>
       <c r="F110">
-        <v>4.5287758972228708e-07</v>
+        <v>1.4149043200859963e-13</v>
       </c>
       <c r="G110">
-        <v>0.00027620525471834273</v>
+        <v>0.00012820119294730989</v>
       </c>
       <c r="H110">
-        <v>3.3137106623837013e-06</v>
+        <v>0.99235262107371669</v>
       </c>
       <c r="I110">
-        <v>1.9281619646625108e-05</v>
+        <v>2.822992343663632e-07</v>
       </c>
       <c r="J110">
-        <v>0.96586245391875769</v>
+        <v>0.0062317086215551969</v>
       </c>
       <c r="K110">
-        <v>1.3289504621355316e-09</v>
+        <v>3.9095071594495529e-07</v>
       </c>
       <c r="L110">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="111">
@@ -4701,37 +4818,37 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>0.00087737074969575625</v>
+        <v>0.0012510291854447735</v>
       </c>
       <c r="C111">
-        <v>2.3052588497758404e-05</v>
+        <v>0.99217857019084887</v>
       </c>
       <c r="D111">
-        <v>0.083189290838510802</v>
+        <v>0.00072168880369550322</v>
       </c>
       <c r="E111">
-        <v>4.9111175002579621e-14</v>
+        <v>2.5139293765606976e-14</v>
       </c>
       <c r="F111">
-        <v>1.4724410061607494e-12</v>
+        <v>3.2931265364449894e-12</v>
       </c>
       <c r="G111">
-        <v>0.00054601153187248041</v>
+        <v>0.0044361783214380349</v>
       </c>
       <c r="H111">
-        <v>0.0016567631402522472</v>
+        <v>3.7189557518394986e-07</v>
       </c>
       <c r="I111">
-        <v>0.00021953660339044023</v>
+        <v>3.0799292021644365e-07</v>
       </c>
       <c r="J111">
-        <v>0.91348504267121222</v>
+        <v>1.3518478846306473e-05</v>
       </c>
       <c r="K111">
-        <v>2.9318750467734615e-06</v>
+        <v>0.0013983351279129321</v>
       </c>
       <c r="L111">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112">
@@ -4739,37 +4856,37 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>0.00082236448559467852</v>
+        <v>0.00077080979751450107</v>
       </c>
       <c r="C112">
-        <v>0.00020095494472354745</v>
+        <v>0.96489829905974245</v>
       </c>
       <c r="D112">
-        <v>0.00010036877603154343</v>
+        <v>0.00065075996662880423</v>
       </c>
       <c r="E112">
-        <v>2.2200641085831538e-14</v>
+        <v>2.2201257581902704e-14</v>
       </c>
       <c r="F112">
-        <v>2.2200641085831538e-14</v>
+        <v>9.3161659829646822e-12</v>
       </c>
       <c r="G112">
-        <v>6.5421403651281761e-05</v>
+        <v>0.0027486089989314636</v>
       </c>
       <c r="H112">
-        <v>0.98779202645790276</v>
+        <v>8.2014401767892748e-08</v>
       </c>
       <c r="I112">
-        <v>8.528975658705527e-07</v>
+        <v>7.2195205855649978e-07</v>
       </c>
       <c r="J112">
-        <v>0.011017243444018096</v>
+        <v>2.7201439243708684e-06</v>
       </c>
       <c r="K112">
-        <v>7.6759046778984372e-07</v>
+        <v>0.030927998057459601</v>
       </c>
       <c r="L112">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113">
@@ -4777,37 +4894,37 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>0.00012779248486024104</v>
+        <v>0.00094199606091931957</v>
       </c>
       <c r="C113">
-        <v>3.179330621078596e-06</v>
+        <v>0.98712116679973361</v>
       </c>
       <c r="D113">
-        <v>0.012950652559585029</v>
+        <v>0.0011277458719912866</v>
       </c>
       <c r="E113">
-        <v>2.6545274044560067e-14</v>
+        <v>2.2203750185813387e-14</v>
       </c>
       <c r="F113">
-        <v>1.7571011056727956e-08</v>
+        <v>1.4007944662158362e-11</v>
       </c>
       <c r="G113">
-        <v>0.00031160443922888898</v>
+        <v>0.0059628197168622573</v>
       </c>
       <c r="H113">
-        <v>6.0830026300334928e-05</v>
+        <v>1.1425968854511548e-07</v>
       </c>
       <c r="I113">
-        <v>1.2783807391014671e-05</v>
+        <v>4.8600915661474237e-07</v>
       </c>
       <c r="J113">
-        <v>0.98653312238645108</v>
+        <v>4.8005123945323127e-06</v>
       </c>
       <c r="K113">
-        <v>1.7394524753366874e-08</v>
+        <v>0.004840870755223544</v>
       </c>
       <c r="L113">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114">
@@ -4815,37 +4932,37 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>0.0010878516486364698</v>
+        <v>0.0024480406815646327</v>
       </c>
       <c r="C114">
-        <v>0.00013474030203584333</v>
+        <v>0.98819778712112338</v>
       </c>
       <c r="D114">
-        <v>1.2875431784091396e-05</v>
+        <v>0.0012746674107147868</v>
       </c>
       <c r="E114">
-        <v>2.2200702425908192e-14</v>
+        <v>3.6409384139239772e-14</v>
       </c>
       <c r="F114">
-        <v>2.2200702425908192e-14</v>
+        <v>6.4911118333217977e-12</v>
       </c>
       <c r="G114">
-        <v>0.00018519040532230435</v>
+        <v>0.0040063452794748058</v>
       </c>
       <c r="H114">
-        <v>0.98641987133556686</v>
+        <v>6.4281026165217955e-07</v>
       </c>
       <c r="I114">
-        <v>1.5668220802770336e-06</v>
+        <v>9.0709385378852606e-07</v>
       </c>
       <c r="J114">
-        <v>0.012156954061381207</v>
+        <v>2.4958290715582867e-05</v>
       </c>
       <c r="K114">
-        <v>9.499931484523637e-07</v>
+        <v>0.0040466513057638015</v>
       </c>
       <c r="L114">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115">
@@ -4853,37 +4970,37 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>0.00010277228055883534</v>
+        <v>0.00095149481288476861</v>
       </c>
       <c r="C115">
-        <v>1.0262111656158503e-06</v>
+        <v>0.99155364980249883</v>
       </c>
       <c r="D115">
-        <v>0.99828560909227415</v>
+        <v>0.00013424072819065148</v>
       </c>
       <c r="E115">
-        <v>2.2202538540605599e-14</v>
+        <v>2.2199935230923081e-14</v>
       </c>
       <c r="F115">
-        <v>8.0717089436166562e-10</v>
+        <v>8.2243359337804431e-10</v>
       </c>
       <c r="G115">
-        <v>0.00062992902988902853</v>
+        <v>0.0039731077198003634</v>
       </c>
       <c r="H115">
-        <v>2.5776813277968256e-07</v>
+        <v>4.4783823038374696e-07</v>
       </c>
       <c r="I115">
-        <v>1.8719064338783533e-05</v>
+        <v>1.5502873113417267e-07</v>
       </c>
       <c r="J115">
-        <v>0.00096167223409999872</v>
+        <v>6.2897078460713523e-06</v>
       </c>
       <c r="K115">
-        <v>1.3512347997031473e-08</v>
+        <v>0.0033806135393619351</v>
       </c>
       <c r="L115">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116">
@@ -4891,34 +5008,34 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>0.00016218097163766664</v>
+        <v>0.00018212929437282712</v>
       </c>
       <c r="C116">
-        <v>5.749582079243622e-07</v>
+        <v>1.2577713447412699e-06</v>
       </c>
       <c r="D116">
-        <v>0.99778152110465279</v>
+        <v>0.9979029783862583</v>
       </c>
       <c r="E116">
-        <v>2.2200620324853099e-14</v>
+        <v>2.2201235006012197e-14</v>
       </c>
       <c r="F116">
-        <v>6.6521482479917956e-09</v>
+        <v>7.6440404083055745e-10</v>
       </c>
       <c r="G116">
-        <v>0.00065243131586238527</v>
+        <v>0.0010392223322213763</v>
       </c>
       <c r="H116">
-        <v>1.3385903610440301e-07</v>
+        <v>1.0733550572470158e-07</v>
       </c>
       <c r="I116">
-        <v>2.7483674247779066e-05</v>
+        <v>0.00023461605834410726</v>
       </c>
       <c r="J116">
-        <v>0.0013756509758576162</v>
+        <v>0.00063961257748721963</v>
       </c>
       <c r="K116">
-        <v>1.648832719487247e-08</v>
+        <v>7.5480039420019903e-08</v>
       </c>
       <c r="L116">
         <v>3</v>
@@ -4929,37 +5046,37 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>0.00035025728848078687</v>
+        <v>0.00045135130492171023</v>
       </c>
       <c r="C117">
-        <v>2.6867071334857094e-06</v>
+        <v>7.9572806441666026e-05</v>
       </c>
       <c r="D117">
-        <v>0.99764328219862575</v>
+        <v>0.0046788933550939559</v>
       </c>
       <c r="E117">
-        <v>2.2200387836237278e-14</v>
+        <v>2.4690067798444906e-14</v>
       </c>
       <c r="F117">
-        <v>9.3781120661850088e-08</v>
+        <v>2.4690067798461883e-14</v>
       </c>
       <c r="G117">
-        <v>0.00059323785165945415</v>
+        <v>0.00012917243696805935</v>
       </c>
       <c r="H117">
-        <v>2.6558176118566638e-06</v>
+        <v>0.0019702503507351928</v>
       </c>
       <c r="I117">
-        <v>3.0109717690138901e-06</v>
+        <v>6.8730973140891546e-05</v>
       </c>
       <c r="J117">
-        <v>0.0014047654463316321</v>
+        <v>0.99262149753298456</v>
       </c>
       <c r="K117">
-        <v>9.9372452146684636e-09</v>
+        <v>5.312396646209718e-07</v>
       </c>
       <c r="L117">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="118">
@@ -4967,37 +5084,37 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>0.0013453384734118427</v>
+        <v>0.00020814612746174633</v>
       </c>
       <c r="C118">
-        <v>0.00039489479826013965</v>
+        <v>7.7668139083893903e-06</v>
       </c>
       <c r="D118">
-        <v>1.8890363434414908e-05</v>
+        <v>0.016024803195440866</v>
       </c>
       <c r="E118">
-        <v>2.2201532527211635e-14</v>
+        <v>2.2229255998332773e-14</v>
       </c>
       <c r="F118">
-        <v>2.2201532527211635e-14</v>
+        <v>8.5005792074954451e-12</v>
       </c>
       <c r="G118">
-        <v>0.00010149523091089262</v>
+        <v>0.00018213657537713819</v>
       </c>
       <c r="H118">
-        <v>0.99413391460716838</v>
+        <v>0.00088155072052781096</v>
       </c>
       <c r="I118">
-        <v>8.1952768103867339e-07</v>
+        <v>2.4057769467014496e-05</v>
       </c>
       <c r="J118">
-        <v>0.0040015995813127295</v>
+        <v>0.982671425700121</v>
       </c>
       <c r="K118">
-        <v>3.0474177764248869e-06</v>
+        <v>1.1308917318415566e-07</v>
       </c>
       <c r="L118">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="119">
@@ -5005,37 +5122,37 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>0.00028196959796984299</v>
+        <v>0.00019466743306230909</v>
       </c>
       <c r="C119">
-        <v>5.5770595980025925e-07</v>
+        <v>4.4719777355352333e-06</v>
       </c>
       <c r="D119">
-        <v>0.9983383350304228</v>
+        <v>0.078739202541385639</v>
       </c>
       <c r="E119">
-        <v>2.2201800901399058e-14</v>
+        <v>2.5505782757449933e-14</v>
       </c>
       <c r="F119">
-        <v>6.5736752545577232e-08</v>
+        <v>5.6511539249069269e-11</v>
       </c>
       <c r="G119">
-        <v>0.00041263087290427749</v>
+        <v>0.00036952001145084242</v>
       </c>
       <c r="H119">
-        <v>1.1322903378760086e-06</v>
+        <v>0.00041166447405619481</v>
       </c>
       <c r="I119">
-        <v>1.2987604583908571e-05</v>
+        <v>1.8082308174283507e-05</v>
       </c>
       <c r="J119">
-        <v>0.00095230669941973674</v>
+        <v>0.92026234815293628</v>
       </c>
       <c r="K119">
-        <v>1.4461626730151844e-08</v>
+        <v>4.3044661822750584e-08</v>
       </c>
       <c r="L119">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="120">
@@ -5043,37 +5160,37 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>0.00070421784711014737</v>
+        <v>0.00038689241976065956</v>
       </c>
       <c r="C120">
-        <v>0.00014949071639321109</v>
+        <v>8.0535060298516482e-06</v>
       </c>
       <c r="D120">
-        <v>7.355374065388442e-05</v>
+        <v>0.011710155917127306</v>
       </c>
       <c r="E120">
-        <v>2.2200642345887594e-14</v>
+        <v>2.7571186433054434e-14</v>
       </c>
       <c r="F120">
-        <v>2.2200642345887594e-14</v>
+        <v>1.0518777167260761e-11</v>
       </c>
       <c r="G120">
-        <v>0.00012627704732717934</v>
+        <v>0.00017882610696964219</v>
       </c>
       <c r="H120">
-        <v>0.99044920870131992</v>
+        <v>0.0048404045921432168</v>
       </c>
       <c r="I120">
-        <v>5.0180770421963469e-07</v>
+        <v>7.8684675684434708e-05</v>
       </c>
       <c r="J120">
-        <v>0.0084964796064754509</v>
+        <v>0.98279675052175552</v>
       </c>
       <c r="K120">
-        <v>2.7053297149782324e-07</v>
+        <v>2.3224998300580352e-07</v>
       </c>
       <c r="L120">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="121">
@@ -5081,34 +5198,34 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>0.0005716546489318656</v>
+        <v>0.0001830307588472162</v>
       </c>
       <c r="C121">
-        <v>0.96486920357306283</v>
+        <v>0.61467556767873921</v>
       </c>
       <c r="D121">
-        <v>0.00020364742584663372</v>
+        <v>0.00048701096469201997</v>
       </c>
       <c r="E121">
-        <v>2.2200377312722895e-14</v>
+        <v>2.220360935159676e-14</v>
       </c>
       <c r="F121">
-        <v>1.3785139751965398e-11</v>
+        <v>1.4946012521025356e-07</v>
       </c>
       <c r="G121">
-        <v>0.0013693924036341739</v>
+        <v>0.0006358431006869633</v>
       </c>
       <c r="H121">
-        <v>1.2984870732544465e-07</v>
+        <v>2.0544221672073709e-07</v>
       </c>
       <c r="I121">
-        <v>1.47537192189373e-07</v>
+        <v>1.0159677459182263e-08</v>
       </c>
       <c r="J121">
-        <v>4.9093251333738934e-07</v>
+        <v>6.5361960207248673e-09</v>
       </c>
       <c r="K121">
-        <v>0.032985333616304333</v>
+        <v>0.38401817589879678</v>
       </c>
       <c r="L121">
         <v>2</v>
@@ -5119,34 +5236,34 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>0.00023422762358094273</v>
+        <v>7.7782832461663318e-05</v>
       </c>
       <c r="C122">
-        <v>2.4416729018412757e-05</v>
+        <v>1.674399989467641e-06</v>
       </c>
       <c r="D122">
-        <v>2.6550046554004797e-07</v>
+        <v>9.8231643568579619e-08</v>
       </c>
       <c r="E122">
-        <v>0.99440713537519765</v>
+        <v>0.99365282478413386</v>
       </c>
       <c r="F122">
-        <v>8.5019571348782827e-05</v>
+        <v>7.9724408207620183e-06</v>
       </c>
       <c r="G122">
-        <v>0.00043513309172188875</v>
+        <v>0.00022195330765528313</v>
       </c>
       <c r="H122">
-        <v>2.9874076588269312e-06</v>
+        <v>6.7787567969808885e-09</v>
       </c>
       <c r="I122">
-        <v>9.120878675635982e-07</v>
+        <v>6.4449147736704332e-05</v>
       </c>
       <c r="J122">
-        <v>0.0048099024900518494</v>
+        <v>0.0059732380614303743</v>
       </c>
       <c r="K122">
-        <v>1.2308860332781603e-10</v>
+        <v>1.537172184273732e-11</v>
       </c>
       <c r="L122">
         <v>4</v>
@@ -5157,34 +5274,34 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>0.0022297380798471261</v>
+        <v>0.00031964901236326186</v>
       </c>
       <c r="C123">
-        <v>7.8151443032009032e-05</v>
+        <v>4.919651119138317e-06</v>
       </c>
       <c r="D123">
-        <v>0.044294489701283406</v>
+        <v>0.014756470725899556</v>
       </c>
       <c r="E123">
-        <v>1.0564082011598849e-13</v>
+        <v>4.6752690167032573e-14</v>
       </c>
       <c r="F123">
-        <v>5.498419160792588e-12</v>
+        <v>2.4609167188697387e-08</v>
       </c>
       <c r="G123">
-        <v>0.00086650529494791434</v>
+        <v>0.00049004424334364214</v>
       </c>
       <c r="H123">
-        <v>0.0047221876490408585</v>
+        <v>0.00011481482460877356</v>
       </c>
       <c r="I123">
-        <v>0.00043604950487609795</v>
+        <v>6.8591562963351725e-05</v>
       </c>
       <c r="J123">
-        <v>0.94736515731670479</v>
+        <v>0.98424540713862496</v>
       </c>
       <c r="K123">
-        <v>7.7210046637928821e-06</v>
+        <v>7.8231863394408783e-08</v>
       </c>
       <c r="L123">
         <v>9</v>
@@ -5195,37 +5312,37 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>0.00030781580270009207</v>
+        <v>0.00010644351074461698</v>
       </c>
       <c r="C124">
-        <v>9.7662956378244808e-06</v>
+        <v>4.9950836384545695e-06</v>
       </c>
       <c r="D124">
-        <v>0.0058838782093755182</v>
+        <v>4.0373489322085663e-07</v>
       </c>
       <c r="E124">
-        <v>6.3338058296227425e-14</v>
+        <v>0.99580195631688073</v>
       </c>
       <c r="F124">
-        <v>1.6997397221279976e-08</v>
+        <v>3.6558475268178742e-08</v>
       </c>
       <c r="G124">
-        <v>0.00072701099913578262</v>
+        <v>0.00088547677997302991</v>
       </c>
       <c r="H124">
-        <v>0.00012721726696156917</v>
+        <v>6.046057704241114e-08</v>
       </c>
       <c r="I124">
-        <v>5.5237095086153577e-05</v>
+        <v>0.00032941490377620648</v>
       </c>
       <c r="J124">
-        <v>0.99288902120548228</v>
+        <v>0.0028712112047999437</v>
       </c>
       <c r="K124">
-        <v>3.612816026975663e-08</v>
+        <v>1.4462416283128104e-09</v>
       </c>
       <c r="L124">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="125">
@@ -5233,34 +5350,34 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>0.0034231277614407136</v>
+        <v>0.00086271752728709163</v>
       </c>
       <c r="C125">
-        <v>0.00039823336913896588</v>
+        <v>0.00013567038771977372</v>
       </c>
       <c r="D125">
-        <v>0.0017813573234379463</v>
+        <v>0.00021563811348995719</v>
       </c>
       <c r="E125">
-        <v>2.2201123161140332e-14</v>
+        <v>2.2200637468601981e-14</v>
       </c>
       <c r="F125">
-        <v>5.0315432228137601e-12</v>
+        <v>2.2200637468601981e-14</v>
       </c>
       <c r="G125">
-        <v>0.00057548624849724551</v>
+        <v>0.00011668219381115792</v>
       </c>
       <c r="H125">
-        <v>0.99245935974027999</v>
+        <v>0.98597205874932747</v>
       </c>
       <c r="I125">
-        <v>1.3429194743944387e-06</v>
+        <v>5.1724587341162632e-07</v>
       </c>
       <c r="J125">
-        <v>0.0013531457585536234</v>
+        <v>0.012696535378220596</v>
       </c>
       <c r="K125">
-        <v>7.9468741235316448e-06</v>
+        <v>1.8040422627171184e-07</v>
       </c>
       <c r="L125">
         <v>7</v>
@@ -5271,37 +5388,37 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>0.0041565059380624936</v>
+        <v>0.00013970543995211508</v>
       </c>
       <c r="C126">
-        <v>0.00037730134348958321</v>
+        <v>6.25024392038968e-06</v>
       </c>
       <c r="D126">
-        <v>0.00046170738327775524</v>
+        <v>5.8487814462537959e-07</v>
       </c>
       <c r="E126">
-        <v>2.220080251872398e-14</v>
+        <v>0.99653713928414467</v>
       </c>
       <c r="F126">
-        <v>2.220080251872398e-14</v>
+        <v>1.1016157903867183e-08</v>
       </c>
       <c r="G126">
-        <v>0.00028784069960988802</v>
+        <v>0.00092744421243813743</v>
       </c>
       <c r="H126">
-        <v>0.99444131795370216</v>
+        <v>2.1141426567109687e-07</v>
       </c>
       <c r="I126">
-        <v>3.8406727514304125e-06</v>
+        <v>0.00027130649027211806</v>
       </c>
       <c r="J126">
-        <v>0.0002158580630417633</v>
+        <v>0.0021173437291041159</v>
       </c>
       <c r="K126">
-        <v>5.5627946020553596e-05</v>
+        <v>3.2916003419184522e-09</v>
       </c>
       <c r="L126">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127">
@@ -5309,37 +5426,37 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>2.6454919292870354e-05</v>
+        <v>0.0032354063992319541</v>
       </c>
       <c r="C127">
-        <v>0.99387377169736035</v>
+        <v>0.00083077012868934303</v>
       </c>
       <c r="D127">
-        <v>1.5109389215102639e-06</v>
+        <v>0.0075192816984514322</v>
       </c>
       <c r="E127">
-        <v>2.2200617639620771e-14</v>
+        <v>7.4237511630466781e-14</v>
       </c>
       <c r="F127">
-        <v>4.1847204265328713e-09</v>
+        <v>7.4237511630474076e-14</v>
       </c>
       <c r="G127">
-        <v>0.0054410706487869956</v>
+        <v>0.00035543872467349501</v>
       </c>
       <c r="H127">
-        <v>1.8893680407540696e-06</v>
+        <v>0.011173636443938024</v>
       </c>
       <c r="I127">
-        <v>1.175873864687606e-10</v>
+        <v>0.00027964552739490549</v>
       </c>
       <c r="J127">
-        <v>4.8339612122635379e-07</v>
+        <v>0.97659852993355134</v>
       </c>
       <c r="K127">
-        <v>0.00065481472914614861</v>
+        <v>7.2911439211539236e-06</v>
       </c>
       <c r="L127">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128">
@@ -5347,37 +5464,37 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>1.1731421556064616e-05</v>
+        <v>8.7677819269654255e-05</v>
       </c>
       <c r="C128">
-        <v>0.99188763201686347</v>
+        <v>3.1566608345061765e-06</v>
       </c>
       <c r="D128">
-        <v>1.0285392108178615e-06</v>
+        <v>3.4704350510343383e-08</v>
       </c>
       <c r="E128">
-        <v>2.2202279380386794e-14</v>
+        <v>0.98179224507867957</v>
       </c>
       <c r="F128">
-        <v>1.2351479046384083e-08</v>
+        <v>2.8352097307258665e-05</v>
       </c>
       <c r="G128">
-        <v>0.0027545043609944276</v>
+        <v>0.0001641653214235359</v>
       </c>
       <c r="H128">
-        <v>3.5737275479692911e-07</v>
+        <v>2.5167907757768322e-07</v>
       </c>
       <c r="I128">
-        <v>8.6646469279112184e-11</v>
+        <v>1.2501621480730283e-05</v>
       </c>
       <c r="J128">
-        <v>2.3556078166468674e-07</v>
+        <v>0.017911614890569597</v>
       </c>
       <c r="K128">
-        <v>0.0053444982896911509</v>
+        <v>1.2700719447116516e-10</v>
       </c>
       <c r="L128">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129">
@@ -5385,37 +5502,37 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>2.6241853954519827e-05</v>
+        <v>7.4477093175803036e-05</v>
       </c>
       <c r="C129">
-        <v>0.99510118119977253</v>
+        <v>1.5532064286977996e-05</v>
       </c>
       <c r="D129">
-        <v>1.9071128960837132e-06</v>
+        <v>0.022574967548111859</v>
       </c>
       <c r="E129">
-        <v>2.2200402571757801e-14</v>
+        <v>2.2198602552565761e-14</v>
       </c>
       <c r="F129">
-        <v>3.3927001103050108e-09</v>
+        <v>6.8185649572327389e-14</v>
       </c>
       <c r="G129">
-        <v>0.0044123578822671426</v>
+        <v>8.4904240946754165e-05</v>
       </c>
       <c r="H129">
-        <v>1.8510802502063811e-06</v>
+        <v>0.00017300865908018769</v>
       </c>
       <c r="I129">
-        <v>1.0932508197013439e-10</v>
+        <v>1.4233108659685232e-05</v>
       </c>
       <c r="J129">
-        <v>1.4720310232736861e-06</v>
+        <v>0.97706271165406755</v>
       </c>
       <c r="K129">
-        <v>0.00045498533778869554</v>
+        <v>1.6563158074160723e-07</v>
       </c>
       <c r="L129">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="130">
@@ -5423,37 +5540,37 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>1.3393506843555065e-05</v>
+        <v>0.00017743906474718851</v>
       </c>
       <c r="C130">
-        <v>0.99488154928902828</v>
+        <v>2.8752310174015811e-06</v>
       </c>
       <c r="D130">
-        <v>7.948840440914977e-07</v>
+        <v>0.033891189449319445</v>
       </c>
       <c r="E130">
-        <v>2.2201363957004335e-14</v>
+        <v>2.2206154869070539e-14</v>
       </c>
       <c r="F130">
-        <v>7.2171552864511291e-09</v>
+        <v>1.5451378951993753e-11</v>
       </c>
       <c r="G130">
-        <v>0.0035057831403586454</v>
+        <v>0.00019717841975470105</v>
       </c>
       <c r="H130">
-        <v>1.7690058564806103e-06</v>
+        <v>0.00064433579760354409</v>
       </c>
       <c r="I130">
-        <v>1.0430595636144903e-10</v>
+        <v>5.177755364417833e-05</v>
       </c>
       <c r="J130">
-        <v>3.7941107190995474e-07</v>
+        <v>0.96503507473038874</v>
       </c>
       <c r="K130">
-        <v>0.0015963234413137518</v>
+        <v>1.2973805117941894e-07</v>
       </c>
       <c r="L130">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="131">
@@ -5461,37 +5578,37 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>3.1811180223647418e-05</v>
+        <v>0.00012443033880070816</v>
       </c>
       <c r="C131">
-        <v>0.98624156680348674</v>
+        <v>2.9537565449929021e-06</v>
       </c>
       <c r="D131">
-        <v>2.6464818047761681e-06</v>
+        <v>7.9900417778808703e-08</v>
       </c>
       <c r="E131">
-        <v>2.2202810333782613e-14</v>
+        <v>0.99220217239697961</v>
       </c>
       <c r="F131">
-        <v>1.7772740780490306e-09</v>
+        <v>0.00016050786888142051</v>
       </c>
       <c r="G131">
-        <v>0.0041078613664053765</v>
+        <v>0.00018967349123199024</v>
       </c>
       <c r="H131">
-        <v>5.4385252480085222e-07</v>
+        <v>3.2188595636287048e-07</v>
       </c>
       <c r="I131">
-        <v>6.4705660122937257e-10</v>
+        <v>6.5973194489836549e-06</v>
       </c>
       <c r="J131">
-        <v>2.7790704545868624e-07</v>
+        <v>0.0073132629707002191</v>
       </c>
       <c r="K131">
-        <v>0.0096152899841561602</v>
+        <v>7.1037835673921214e-11</v>
       </c>
       <c r="L131">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="132">
@@ -5499,37 +5616,37 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>0.069024489144622656</v>
+        <v>0.00015063350577674561</v>
       </c>
       <c r="C132">
-        <v>0.2539783909078025</v>
+        <v>8.04363292651129e-06</v>
       </c>
       <c r="D132">
-        <v>0.0085338023209877625</v>
+        <v>0.017236085269308324</v>
       </c>
       <c r="E132">
-        <v>7.5917032072664871e-13</v>
+        <v>2.220009087066862e-14</v>
       </c>
       <c r="F132">
-        <v>7.8837233410445128e-11</v>
+        <v>3.5489346678456277e-08</v>
       </c>
       <c r="G132">
-        <v>0.069078714159996141</v>
+        <v>0.00020317874036231335</v>
       </c>
       <c r="H132">
-        <v>0.0011346322078611419</v>
+        <v>8.5430365625438983e-05</v>
       </c>
       <c r="I132">
-        <v>0.0014057294495654481</v>
+        <v>4.0499013563664385e-06</v>
       </c>
       <c r="J132">
-        <v>0.00057636052148229511</v>
+        <v>0.98231253759591752</v>
       </c>
       <c r="K132">
-        <v>0.5962678812080856</v>
+        <v>5.4993579549853176e-09</v>
       </c>
       <c r="L132">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="133">
@@ -5537,37 +5654,37 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>0.073077668695252965</v>
+        <v>0.00018680298183406947</v>
       </c>
       <c r="C133">
-        <v>0.21058004471201222</v>
+        <v>9.1302596966547742e-06</v>
       </c>
       <c r="D133">
-        <v>0.033136641107325678</v>
+        <v>0.012171941615393903</v>
       </c>
       <c r="E133">
-        <v>9.8114088372773723e-13</v>
+        <v>2.2200117386186323e-14</v>
       </c>
       <c r="F133">
-        <v>7.2364253659490347e-11</v>
+        <v>3.7439746939108474e-11</v>
       </c>
       <c r="G133">
-        <v>0.11845528152558954</v>
+        <v>0.00017700283857983678</v>
       </c>
       <c r="H133">
-        <v>0.0012255083467975841</v>
+        <v>0.00045198783493307943</v>
       </c>
       <c r="I133">
-        <v>0.0017333527744976317</v>
+        <v>9.8884255143704491e-06</v>
       </c>
       <c r="J133">
-        <v>0.00050848285352866939</v>
+        <v>0.98699314745098299</v>
       </c>
       <c r="K133">
-        <v>0.5612830199116503</v>
+        <v>9.855560317378186e-08</v>
       </c>
       <c r="L133">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="134">
@@ -5575,37 +5692,37 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>0.0030754860973124074</v>
+        <v>0.0016984671529566282</v>
       </c>
       <c r="C134">
-        <v>0.20249494123769757</v>
+        <v>7.8021023423551256e-05</v>
       </c>
       <c r="D134">
-        <v>0.078676599889797569</v>
+        <v>0.00028407850677845812</v>
       </c>
       <c r="E134">
-        <v>1.8117092721498751e-13</v>
+        <v>2.2201165773425524e-14</v>
       </c>
       <c r="F134">
-        <v>3.0945705571309716e-07</v>
+        <v>2.2201165773425524e-14</v>
       </c>
       <c r="G134">
-        <v>0.039533943647551528</v>
+        <v>0.00015391303271104098</v>
       </c>
       <c r="H134">
-        <v>0.00033311411014357647</v>
+        <v>0.99564306598961838</v>
       </c>
       <c r="I134">
-        <v>9.6382853566115332e-07</v>
+        <v>4.4903209388336623e-07</v>
       </c>
       <c r="J134">
-        <v>1.8604875719976025e-07</v>
+        <v>0.0021409739250341517</v>
       </c>
       <c r="K134">
-        <v>0.67588445568296773</v>
+        <v>1.0313373395889615e-06</v>
       </c>
       <c r="L134">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="135">
@@ -5613,36 +5730,1518 @@
         <v>134</v>
       </c>
       <c r="B135">
+        <v>0.00047682072205502713</v>
+      </c>
+      <c r="C135">
+        <v>2.6309672058194379e-05</v>
+      </c>
+      <c r="D135">
+        <v>0.01171438307777598</v>
+      </c>
+      <c r="E135">
+        <v>4.3662604241247484e-14</v>
+      </c>
+      <c r="F135">
+        <v>5.5293925463966537e-11</v>
+      </c>
+      <c r="G135">
+        <v>0.00083276887082457673</v>
+      </c>
+      <c r="H135">
+        <v>0.002507597258459201</v>
+      </c>
+      <c r="I135">
+        <v>3.3016933589518657e-05</v>
+      </c>
+      <c r="J135">
+        <v>0.98440894053455552</v>
+      </c>
+      <c r="K135">
+        <v>1.6287534439089169e-07</v>
+      </c>
+      <c r="L135">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>0.0015307039933770215</v>
+      </c>
+      <c r="C136">
+        <v>0.00042021312812610023</v>
+      </c>
+      <c r="D136">
+        <v>0.0013098151870454802</v>
+      </c>
+      <c r="E136">
+        <v>3.4141854763933602e-14</v>
+      </c>
+      <c r="F136">
+        <v>3.4141854763957388e-14</v>
+      </c>
+      <c r="G136">
+        <v>0.00044973048964612916</v>
+      </c>
+      <c r="H136">
+        <v>0.99173679125701342</v>
+      </c>
+      <c r="I136">
+        <v>1.6689607310778402e-06</v>
+      </c>
+      <c r="J136">
+        <v>0.0045493131283779317</v>
+      </c>
+      <c r="K136">
+        <v>1.7638556145248122e-06</v>
+      </c>
+      <c r="L136">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>0.00024670474355815162</v>
+      </c>
+      <c r="C137">
+        <v>5.323750269880256e-05</v>
+      </c>
+      <c r="D137">
+        <v>0.0011168192310035264</v>
+      </c>
+      <c r="E137">
+        <v>2.2202099553448128e-14</v>
+      </c>
+      <c r="F137">
+        <v>1.8379191245086717e-11</v>
+      </c>
+      <c r="G137">
+        <v>0.0002902012481421388</v>
+      </c>
+      <c r="H137">
+        <v>0.0012149411142712331</v>
+      </c>
+      <c r="I137">
+        <v>8.9692533132222015e-06</v>
+      </c>
+      <c r="J137">
+        <v>0.99706905823065461</v>
+      </c>
+      <c r="K137">
+        <v>6.8657956947004134e-08</v>
+      </c>
+      <c r="L137">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>0.002583322257736392</v>
+      </c>
+      <c r="C138">
+        <v>0.0013411746894762227</v>
+      </c>
+      <c r="D138">
+        <v>0.0054782914302446539</v>
+      </c>
+      <c r="E138">
+        <v>5.2626117863404497e-14</v>
+      </c>
+      <c r="F138">
+        <v>5.2626117863409886e-14</v>
+      </c>
+      <c r="G138">
+        <v>0.00037171291477693119</v>
+      </c>
+      <c r="H138">
+        <v>0.0099741251658091584</v>
+      </c>
+      <c r="I138">
+        <v>0.00026548646354999494</v>
+      </c>
+      <c r="J138">
+        <v>0.97998086780864146</v>
+      </c>
+      <c r="K138">
+        <v>5.0192696599578686e-06</v>
+      </c>
+      <c r="L138">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>0.04873982292801949</v>
+      </c>
+      <c r="C139">
+        <v>0.66173953562981302</v>
+      </c>
+      <c r="D139">
+        <v>0.019974991018423982</v>
+      </c>
+      <c r="E139">
+        <v>5.4300736269467584e-13</v>
+      </c>
+      <c r="F139">
+        <v>7.7609660077258632e-11</v>
+      </c>
+      <c r="G139">
+        <v>0.077045864823287721</v>
+      </c>
+      <c r="H139">
+        <v>0.00014570541318487598</v>
+      </c>
+      <c r="I139">
+        <v>0.00022228261208667014</v>
+      </c>
+      <c r="J139">
+        <v>0.00321328216800815</v>
+      </c>
+      <c r="K139">
+        <v>0.18891851532902351</v>
+      </c>
+      <c r="L139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>0.008403931539787449</v>
+      </c>
+      <c r="C140">
+        <v>0.94340230619940302</v>
+      </c>
+      <c r="D140">
+        <v>0.0084789974150395898</v>
+      </c>
+      <c r="E140">
+        <v>1.1715664893125802e-13</v>
+      </c>
+      <c r="F140">
+        <v>1.8164538116505909e-11</v>
+      </c>
+      <c r="G140">
+        <v>0.01310350162120234</v>
+      </c>
+      <c r="H140">
+        <v>4.5698377668045914e-06</v>
+      </c>
+      <c r="I140">
+        <v>6.7797704439027232e-06</v>
+      </c>
+      <c r="J140">
+        <v>6.2349167429621988e-05</v>
+      </c>
+      <c r="K140">
+        <v>0.026537564430645613</v>
+      </c>
+      <c r="L140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>0.00046565292280674556</v>
+      </c>
+      <c r="C141">
+        <v>2.3080390691908119e-05</v>
+      </c>
+      <c r="D141">
+        <v>0.042888167596064543</v>
+      </c>
+      <c r="E141">
+        <v>6.5513576766618906e-14</v>
+      </c>
+      <c r="F141">
+        <v>3.2247732269904298e-11</v>
+      </c>
+      <c r="G141">
+        <v>0.00067807409172518601</v>
+      </c>
+      <c r="H141">
+        <v>0.0031714952415575156</v>
+      </c>
+      <c r="I141">
+        <v>3.9104897432792891e-05</v>
+      </c>
+      <c r="J141">
+        <v>0.95273430789406077</v>
+      </c>
+      <c r="K141">
+        <v>1.1693334728999948e-07</v>
+      </c>
+      <c r="L141">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>0.00069593604212699403</v>
+      </c>
+      <c r="C142">
+        <v>0.00013191710498907598</v>
+      </c>
+      <c r="D142">
+        <v>0.0026651694751115276</v>
+      </c>
+      <c r="E142">
+        <v>2.2230111755263483e-14</v>
+      </c>
+      <c r="F142">
+        <v>2.2230111755263489e-14</v>
+      </c>
+      <c r="G142">
+        <v>0.00012566970322757054</v>
+      </c>
+      <c r="H142">
+        <v>0.012416604169149411</v>
+      </c>
+      <c r="I142">
+        <v>0.0001189944498587965</v>
+      </c>
+      <c r="J142">
+        <v>0.9838451628810293</v>
+      </c>
+      <c r="K142">
+        <v>5.4617446291711959e-07</v>
+      </c>
+      <c r="L142">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>6.5256264656124761e-05</v>
+      </c>
+      <c r="C143">
+        <v>7.3026832218399725e-07</v>
+      </c>
+      <c r="D143">
+        <v>0.033772304756674157</v>
+      </c>
+      <c r="E143">
+        <v>2.2200238541820401e-14</v>
+      </c>
+      <c r="F143">
+        <v>4.5287758972228708e-07</v>
+      </c>
+      <c r="G143">
+        <v>0.00027620525471834273</v>
+      </c>
+      <c r="H143">
+        <v>3.3137106623837013e-06</v>
+      </c>
+      <c r="I143">
+        <v>1.9281619646625108e-05</v>
+      </c>
+      <c r="J143">
+        <v>0.96586245391875769</v>
+      </c>
+      <c r="K143">
+        <v>1.3289504621355316e-09</v>
+      </c>
+      <c r="L143">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>0.00087737074969575625</v>
+      </c>
+      <c r="C144">
+        <v>2.3052588497758404e-05</v>
+      </c>
+      <c r="D144">
+        <v>0.083189290838510802</v>
+      </c>
+      <c r="E144">
+        <v>4.9111175002579621e-14</v>
+      </c>
+      <c r="F144">
+        <v>1.4724410061607494e-12</v>
+      </c>
+      <c r="G144">
+        <v>0.00054601153187248041</v>
+      </c>
+      <c r="H144">
+        <v>0.0016567631402522472</v>
+      </c>
+      <c r="I144">
+        <v>0.00021953660339044023</v>
+      </c>
+      <c r="J144">
+        <v>0.91348504267121222</v>
+      </c>
+      <c r="K144">
+        <v>2.9318750467734615e-06</v>
+      </c>
+      <c r="L144">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>0.00082236448559467852</v>
+      </c>
+      <c r="C145">
+        <v>0.00020095494472354745</v>
+      </c>
+      <c r="D145">
+        <v>0.00010036877603154343</v>
+      </c>
+      <c r="E145">
+        <v>2.2200641085831538e-14</v>
+      </c>
+      <c r="F145">
+        <v>2.2200641085831538e-14</v>
+      </c>
+      <c r="G145">
+        <v>6.5421403651281761e-05</v>
+      </c>
+      <c r="H145">
+        <v>0.98779202645790276</v>
+      </c>
+      <c r="I145">
+        <v>8.528975658705527e-07</v>
+      </c>
+      <c r="J145">
+        <v>0.011017243444018096</v>
+      </c>
+      <c r="K145">
+        <v>7.6759046778984372e-07</v>
+      </c>
+      <c r="L145">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>0.00012779248486024104</v>
+      </c>
+      <c r="C146">
+        <v>3.179330621078596e-06</v>
+      </c>
+      <c r="D146">
+        <v>0.012950652559585029</v>
+      </c>
+      <c r="E146">
+        <v>2.6545274044560067e-14</v>
+      </c>
+      <c r="F146">
+        <v>1.7571011056727956e-08</v>
+      </c>
+      <c r="G146">
+        <v>0.00031160443922888898</v>
+      </c>
+      <c r="H146">
+        <v>6.0830026300334928e-05</v>
+      </c>
+      <c r="I146">
+        <v>1.2783807391014671e-05</v>
+      </c>
+      <c r="J146">
+        <v>0.98653312238645108</v>
+      </c>
+      <c r="K146">
+        <v>1.7394524753366874e-08</v>
+      </c>
+      <c r="L146">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>0.0010878516486364698</v>
+      </c>
+      <c r="C147">
+        <v>0.00013474030203584333</v>
+      </c>
+      <c r="D147">
+        <v>1.2875431784091396e-05</v>
+      </c>
+      <c r="E147">
+        <v>2.2200702425908192e-14</v>
+      </c>
+      <c r="F147">
+        <v>2.2200702425908192e-14</v>
+      </c>
+      <c r="G147">
+        <v>0.00018519040532230435</v>
+      </c>
+      <c r="H147">
+        <v>0.98641987133556686</v>
+      </c>
+      <c r="I147">
+        <v>1.5668220802770336e-06</v>
+      </c>
+      <c r="J147">
+        <v>0.012156954061381207</v>
+      </c>
+      <c r="K147">
+        <v>9.499931484523637e-07</v>
+      </c>
+      <c r="L147">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>0.00010277228055883534</v>
+      </c>
+      <c r="C148">
+        <v>1.0262111656158503e-06</v>
+      </c>
+      <c r="D148">
+        <v>0.99828560909227415</v>
+      </c>
+      <c r="E148">
+        <v>2.2202538540605599e-14</v>
+      </c>
+      <c r="F148">
+        <v>8.0717089436166562e-10</v>
+      </c>
+      <c r="G148">
+        <v>0.00062992902988902853</v>
+      </c>
+      <c r="H148">
+        <v>2.5776813277968256e-07</v>
+      </c>
+      <c r="I148">
+        <v>1.8719064338783533e-05</v>
+      </c>
+      <c r="J148">
+        <v>0.00096167223409999872</v>
+      </c>
+      <c r="K148">
+        <v>1.3512347997031473e-08</v>
+      </c>
+      <c r="L148">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>0.00016218097163766664</v>
+      </c>
+      <c r="C149">
+        <v>5.749582079243622e-07</v>
+      </c>
+      <c r="D149">
+        <v>0.99778152110465279</v>
+      </c>
+      <c r="E149">
+        <v>2.2200620324853099e-14</v>
+      </c>
+      <c r="F149">
+        <v>6.6521482479917956e-09</v>
+      </c>
+      <c r="G149">
+        <v>0.00065243131586238527</v>
+      </c>
+      <c r="H149">
+        <v>1.3385903610440301e-07</v>
+      </c>
+      <c r="I149">
+        <v>2.7483674247779066e-05</v>
+      </c>
+      <c r="J149">
+        <v>0.0013756509758576162</v>
+      </c>
+      <c r="K149">
+        <v>1.648832719487247e-08</v>
+      </c>
+      <c r="L149">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>0.00035025728848078687</v>
+      </c>
+      <c r="C150">
+        <v>2.6867071334857094e-06</v>
+      </c>
+      <c r="D150">
+        <v>0.99764328219862575</v>
+      </c>
+      <c r="E150">
+        <v>2.2200387836237278e-14</v>
+      </c>
+      <c r="F150">
+        <v>9.3781120661850088e-08</v>
+      </c>
+      <c r="G150">
+        <v>0.00059323785165945415</v>
+      </c>
+      <c r="H150">
+        <v>2.6558176118566638e-06</v>
+      </c>
+      <c r="I150">
+        <v>3.0109717690138901e-06</v>
+      </c>
+      <c r="J150">
+        <v>0.0014047654463316321</v>
+      </c>
+      <c r="K150">
+        <v>9.9372452146684636e-09</v>
+      </c>
+      <c r="L150">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>0.0013453384734118427</v>
+      </c>
+      <c r="C151">
+        <v>0.00039489479826013965</v>
+      </c>
+      <c r="D151">
+        <v>1.8890363434414908e-05</v>
+      </c>
+      <c r="E151">
+        <v>2.2201532527211635e-14</v>
+      </c>
+      <c r="F151">
+        <v>2.2201532527211635e-14</v>
+      </c>
+      <c r="G151">
+        <v>0.00010149523091089262</v>
+      </c>
+      <c r="H151">
+        <v>0.99413391460716838</v>
+      </c>
+      <c r="I151">
+        <v>8.1952768103867339e-07</v>
+      </c>
+      <c r="J151">
+        <v>0.0040015995813127295</v>
+      </c>
+      <c r="K151">
+        <v>3.0474177764248869e-06</v>
+      </c>
+      <c r="L151">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>0.00028196959796984299</v>
+      </c>
+      <c r="C152">
+        <v>5.5770595980025925e-07</v>
+      </c>
+      <c r="D152">
+        <v>0.9983383350304228</v>
+      </c>
+      <c r="E152">
+        <v>2.2201800901399058e-14</v>
+      </c>
+      <c r="F152">
+        <v>6.5736752545577232e-08</v>
+      </c>
+      <c r="G152">
+        <v>0.00041263087290427749</v>
+      </c>
+      <c r="H152">
+        <v>1.1322903378760086e-06</v>
+      </c>
+      <c r="I152">
+        <v>1.2987604583908571e-05</v>
+      </c>
+      <c r="J152">
+        <v>0.00095230669941973674</v>
+      </c>
+      <c r="K152">
+        <v>1.4461626730151844e-08</v>
+      </c>
+      <c r="L152">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>0.0058814584008223206</v>
+      </c>
+      <c r="C153">
+        <v>8.1690666659242823e-06</v>
+      </c>
+      <c r="D153">
+        <v>0.18491363291428131</v>
+      </c>
+      <c r="E153">
+        <v>1.1790573583376887e-12</v>
+      </c>
+      <c r="F153">
+        <v>0.0013415319478284216</v>
+      </c>
+      <c r="G153">
+        <v>0.0096152944803487052</v>
+      </c>
+      <c r="H153">
+        <v>0.00037628073169626862</v>
+      </c>
+      <c r="I153">
+        <v>0.0018906544608332746</v>
+      </c>
+      <c r="J153">
+        <v>0.79597289318087494</v>
+      </c>
+      <c r="K153">
+        <v>8.4815469861983968e-08</v>
+      </c>
+      <c r="L153">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>0.00070421784711014737</v>
+      </c>
+      <c r="C154">
+        <v>0.00014949071639321109</v>
+      </c>
+      <c r="D154">
+        <v>7.355374065388442e-05</v>
+      </c>
+      <c r="E154">
+        <v>2.2200642345887594e-14</v>
+      </c>
+      <c r="F154">
+        <v>2.2200642345887594e-14</v>
+      </c>
+      <c r="G154">
+        <v>0.00012627704732717934</v>
+      </c>
+      <c r="H154">
+        <v>0.99044920870131992</v>
+      </c>
+      <c r="I154">
+        <v>5.0180770421963469e-07</v>
+      </c>
+      <c r="J154">
+        <v>0.0084964796064754509</v>
+      </c>
+      <c r="K154">
+        <v>2.7053297149782324e-07</v>
+      </c>
+      <c r="L154">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>0.0005716546489318656</v>
+      </c>
+      <c r="C155">
+        <v>0.96486920357306283</v>
+      </c>
+      <c r="D155">
+        <v>0.00020364742584663372</v>
+      </c>
+      <c r="E155">
+        <v>2.2200377312722895e-14</v>
+      </c>
+      <c r="F155">
+        <v>1.3785139751965398e-11</v>
+      </c>
+      <c r="G155">
+        <v>0.0013693924036341739</v>
+      </c>
+      <c r="H155">
+        <v>1.2984870732544465e-07</v>
+      </c>
+      <c r="I155">
+        <v>1.47537192189373e-07</v>
+      </c>
+      <c r="J155">
+        <v>4.9093251333738934e-07</v>
+      </c>
+      <c r="K155">
+        <v>0.032985333616304333</v>
+      </c>
+      <c r="L155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>0.01530031077776076</v>
+      </c>
+      <c r="C156">
+        <v>0.00018973167561464014</v>
+      </c>
+      <c r="D156">
+        <v>0.033145201130026752</v>
+      </c>
+      <c r="E156">
+        <v>2.0728425167946319e-13</v>
+      </c>
+      <c r="F156">
+        <v>0.03894748685148626</v>
+      </c>
+      <c r="G156">
+        <v>0.00060737548003120809</v>
+      </c>
+      <c r="H156">
+        <v>2.591524860544544e-06</v>
+      </c>
+      <c r="I156">
+        <v>1.3440675423781724e-06</v>
+      </c>
+      <c r="J156">
+        <v>0.91180595849226287</v>
+      </c>
+      <c r="K156">
+        <v>2.0728425167947447e-13</v>
+      </c>
+      <c r="L156">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>0.00024371427007229514</v>
+      </c>
+      <c r="C157">
+        <v>2.388255105680736e-06</v>
+      </c>
+      <c r="D157">
+        <v>0.040038812052373376</v>
+      </c>
+      <c r="E157">
+        <v>2.2200293378643077e-14</v>
+      </c>
+      <c r="F157">
+        <v>2.4742485243155715e-11</v>
+      </c>
+      <c r="G157">
+        <v>0.00022883247242106548</v>
+      </c>
+      <c r="H157">
+        <v>8.3960739259117615e-05</v>
+      </c>
+      <c r="I157">
+        <v>0.00015044433697057255</v>
+      </c>
+      <c r="J157">
+        <v>0.95925164345629599</v>
+      </c>
+      <c r="K157">
+        <v>2.0439273711768482e-07</v>
+      </c>
+      <c r="L157">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>0.00018057725071023238</v>
+      </c>
+      <c r="C158">
+        <v>1.3406662317448788e-05</v>
+      </c>
+      <c r="D158">
+        <v>5.3487251539807478e-08</v>
+      </c>
+      <c r="E158">
+        <v>0.99466611126020676</v>
+      </c>
+      <c r="F158">
+        <v>0.00040684080990666685</v>
+      </c>
+      <c r="G158">
+        <v>0.000392483732838498</v>
+      </c>
+      <c r="H158">
+        <v>9.5657877479894599e-07</v>
+      </c>
+      <c r="I158">
+        <v>1.4659946725090439e-06</v>
+      </c>
+      <c r="J158">
+        <v>0.0043381041882710122</v>
+      </c>
+      <c r="K158">
+        <v>3.5050690727408312e-11</v>
+      </c>
+      <c r="L158">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>0.00023422762358094273</v>
+      </c>
+      <c r="C159">
+        <v>2.4416729018412757e-05</v>
+      </c>
+      <c r="D159">
+        <v>2.6550046554004797e-07</v>
+      </c>
+      <c r="E159">
+        <v>0.99440713537519765</v>
+      </c>
+      <c r="F159">
+        <v>8.5019571348782827e-05</v>
+      </c>
+      <c r="G159">
+        <v>0.00043513309172188875</v>
+      </c>
+      <c r="H159">
+        <v>2.9874076588269312e-06</v>
+      </c>
+      <c r="I159">
+        <v>9.120878675635982e-07</v>
+      </c>
+      <c r="J159">
+        <v>0.0048099024900518494</v>
+      </c>
+      <c r="K159">
+        <v>1.2308860332781603e-10</v>
+      </c>
+      <c r="L159">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>0.0022297380798471261</v>
+      </c>
+      <c r="C160">
+        <v>7.8151443032009032e-05</v>
+      </c>
+      <c r="D160">
+        <v>0.044294489701283406</v>
+      </c>
+      <c r="E160">
+        <v>1.0564082011598849e-13</v>
+      </c>
+      <c r="F160">
+        <v>5.498419160792588e-12</v>
+      </c>
+      <c r="G160">
+        <v>0.00086650529494791434</v>
+      </c>
+      <c r="H160">
+        <v>0.0047221876490408585</v>
+      </c>
+      <c r="I160">
+        <v>0.00043604950487609795</v>
+      </c>
+      <c r="J160">
+        <v>0.94736515731670479</v>
+      </c>
+      <c r="K160">
+        <v>7.7210046637928821e-06</v>
+      </c>
+      <c r="L160">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>0.00019639727149293264</v>
+      </c>
+      <c r="C161">
+        <v>7.7574244178353257e-06</v>
+      </c>
+      <c r="D161">
+        <v>4.2050599639216649e-07</v>
+      </c>
+      <c r="E161">
+        <v>0.99665488079777453</v>
+      </c>
+      <c r="F161">
+        <v>1.5107178210096712e-07</v>
+      </c>
+      <c r="G161">
+        <v>0.0011886764599399681</v>
+      </c>
+      <c r="H161">
+        <v>3.8993794848109145e-07</v>
+      </c>
+      <c r="I161">
+        <v>0.00025004878730300361</v>
+      </c>
+      <c r="J161">
+        <v>0.0017012753412206036</v>
+      </c>
+      <c r="K161">
+        <v>2.4021242771278788e-09</v>
+      </c>
+      <c r="L161">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>9.5011586456313771e-05</v>
+      </c>
+      <c r="C162">
+        <v>9.1384484240296266e-07</v>
+      </c>
+      <c r="D162">
+        <v>6.4862500709031814e-08</v>
+      </c>
+      <c r="E162">
+        <v>0.99517199886557128</v>
+      </c>
+      <c r="F162">
+        <v>1.8364486669008914e-05</v>
+      </c>
+      <c r="G162">
+        <v>0.00019102196187560958</v>
+      </c>
+      <c r="H162">
+        <v>7.1925435304916347e-09</v>
+      </c>
+      <c r="I162">
+        <v>8.8066521525596384e-05</v>
+      </c>
+      <c r="J162">
+        <v>0.0044345506699884109</v>
+      </c>
+      <c r="K162">
+        <v>8.0269702942464171e-12</v>
+      </c>
+      <c r="L162">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>0.00030781580270009207</v>
+      </c>
+      <c r="C163">
+        <v>9.7662956378244808e-06</v>
+      </c>
+      <c r="D163">
+        <v>0.0058838782093755182</v>
+      </c>
+      <c r="E163">
+        <v>6.3338058296227425e-14</v>
+      </c>
+      <c r="F163">
+        <v>1.6997397221279976e-08</v>
+      </c>
+      <c r="G163">
+        <v>0.00072701099913578262</v>
+      </c>
+      <c r="H163">
+        <v>0.00012721726696156917</v>
+      </c>
+      <c r="I163">
+        <v>5.5237095086153577e-05</v>
+      </c>
+      <c r="J163">
+        <v>0.99288902120548228</v>
+      </c>
+      <c r="K163">
+        <v>3.612816026975663e-08</v>
+      </c>
+      <c r="L163">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>0.0034231277614407136</v>
+      </c>
+      <c r="C164">
+        <v>0.00039823336913896588</v>
+      </c>
+      <c r="D164">
+        <v>0.0017813573234379463</v>
+      </c>
+      <c r="E164">
+        <v>2.2201123161140332e-14</v>
+      </c>
+      <c r="F164">
+        <v>5.0315432228137601e-12</v>
+      </c>
+      <c r="G164">
+        <v>0.00057548624849724551</v>
+      </c>
+      <c r="H164">
+        <v>0.99245935974027999</v>
+      </c>
+      <c r="I164">
+        <v>1.3429194743944387e-06</v>
+      </c>
+      <c r="J164">
+        <v>0.0013531457585536234</v>
+      </c>
+      <c r="K164">
+        <v>7.9468741235316448e-06</v>
+      </c>
+      <c r="L164">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>0.0041565059380624936</v>
+      </c>
+      <c r="C165">
+        <v>0.00037730134348958321</v>
+      </c>
+      <c r="D165">
+        <v>0.00046170738327775524</v>
+      </c>
+      <c r="E165">
+        <v>2.220080251872398e-14</v>
+      </c>
+      <c r="F165">
+        <v>2.220080251872398e-14</v>
+      </c>
+      <c r="G165">
+        <v>0.00028784069960988802</v>
+      </c>
+      <c r="H165">
+        <v>0.99444131795370216</v>
+      </c>
+      <c r="I165">
+        <v>3.8406727514304125e-06</v>
+      </c>
+      <c r="J165">
+        <v>0.0002158580630417633</v>
+      </c>
+      <c r="K165">
+        <v>5.5627946020553596e-05</v>
+      </c>
+      <c r="L165">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>2.6454919292870354e-05</v>
+      </c>
+      <c r="C166">
+        <v>0.99387377169736035</v>
+      </c>
+      <c r="D166">
+        <v>1.5109389215102639e-06</v>
+      </c>
+      <c r="E166">
+        <v>2.2200617639620771e-14</v>
+      </c>
+      <c r="F166">
+        <v>4.1847204265328713e-09</v>
+      </c>
+      <c r="G166">
+        <v>0.0054410706487869956</v>
+      </c>
+      <c r="H166">
+        <v>1.8893680407540696e-06</v>
+      </c>
+      <c r="I166">
+        <v>1.175873864687606e-10</v>
+      </c>
+      <c r="J166">
+        <v>4.8339612122635379e-07</v>
+      </c>
+      <c r="K166">
+        <v>0.00065481472914614861</v>
+      </c>
+      <c r="L166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>1.1731421556064616e-05</v>
+      </c>
+      <c r="C167">
+        <v>0.99188763201686347</v>
+      </c>
+      <c r="D167">
+        <v>1.0285392108178615e-06</v>
+      </c>
+      <c r="E167">
+        <v>2.2202279380386794e-14</v>
+      </c>
+      <c r="F167">
+        <v>1.2351479046384083e-08</v>
+      </c>
+      <c r="G167">
+        <v>0.0027545043609944276</v>
+      </c>
+      <c r="H167">
+        <v>3.5737275479692911e-07</v>
+      </c>
+      <c r="I167">
+        <v>8.6646469279112184e-11</v>
+      </c>
+      <c r="J167">
+        <v>2.3556078166468674e-07</v>
+      </c>
+      <c r="K167">
+        <v>0.0053444982896911509</v>
+      </c>
+      <c r="L167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>2.6241853954519827e-05</v>
+      </c>
+      <c r="C168">
+        <v>0.99510118119977253</v>
+      </c>
+      <c r="D168">
+        <v>1.9071128960837132e-06</v>
+      </c>
+      <c r="E168">
+        <v>2.2200402571757801e-14</v>
+      </c>
+      <c r="F168">
+        <v>3.3927001103050108e-09</v>
+      </c>
+      <c r="G168">
+        <v>0.0044123578822671426</v>
+      </c>
+      <c r="H168">
+        <v>1.8510802502063811e-06</v>
+      </c>
+      <c r="I168">
+        <v>1.0932508197013439e-10</v>
+      </c>
+      <c r="J168">
+        <v>1.4720310232736861e-06</v>
+      </c>
+      <c r="K168">
+        <v>0.00045498533778869554</v>
+      </c>
+      <c r="L168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>1.3393506843555065e-05</v>
+      </c>
+      <c r="C169">
+        <v>0.99488154928902828</v>
+      </c>
+      <c r="D169">
+        <v>7.948840440914977e-07</v>
+      </c>
+      <c r="E169">
+        <v>2.2201363957004335e-14</v>
+      </c>
+      <c r="F169">
+        <v>7.2171552864511291e-09</v>
+      </c>
+      <c r="G169">
+        <v>0.0035057831403586454</v>
+      </c>
+      <c r="H169">
+        <v>1.7690058564806103e-06</v>
+      </c>
+      <c r="I169">
+        <v>1.0430595636144903e-10</v>
+      </c>
+      <c r="J169">
+        <v>3.7941107190995474e-07</v>
+      </c>
+      <c r="K169">
+        <v>0.0015963234413137518</v>
+      </c>
+      <c r="L169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>3.1811180223647418e-05</v>
+      </c>
+      <c r="C170">
+        <v>0.98624156680348674</v>
+      </c>
+      <c r="D170">
+        <v>2.6464818047761681e-06</v>
+      </c>
+      <c r="E170">
+        <v>2.2202810333782613e-14</v>
+      </c>
+      <c r="F170">
+        <v>1.7772740780490306e-09</v>
+      </c>
+      <c r="G170">
+        <v>0.0041078613664053765</v>
+      </c>
+      <c r="H170">
+        <v>5.4385252480085222e-07</v>
+      </c>
+      <c r="I170">
+        <v>6.4705660122937257e-10</v>
+      </c>
+      <c r="J170">
+        <v>2.7790704545868624e-07</v>
+      </c>
+      <c r="K170">
+        <v>0.0096152899841561602</v>
+      </c>
+      <c r="L170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>0.069024489144622656</v>
+      </c>
+      <c r="C171">
+        <v>0.2539783909078025</v>
+      </c>
+      <c r="D171">
+        <v>0.0085338023209877625</v>
+      </c>
+      <c r="E171">
+        <v>7.5917032072664871e-13</v>
+      </c>
+      <c r="F171">
+        <v>7.8837233410445128e-11</v>
+      </c>
+      <c r="G171">
+        <v>0.069078714159996141</v>
+      </c>
+      <c r="H171">
+        <v>0.0011346322078611419</v>
+      </c>
+      <c r="I171">
+        <v>0.0014057294495654481</v>
+      </c>
+      <c r="J171">
+        <v>0.00057636052148229511</v>
+      </c>
+      <c r="K171">
+        <v>0.5962678812080856</v>
+      </c>
+      <c r="L171">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>0.073077668695252965</v>
+      </c>
+      <c r="C172">
+        <v>0.21058004471201222</v>
+      </c>
+      <c r="D172">
+        <v>0.033136641107325678</v>
+      </c>
+      <c r="E172">
+        <v>9.8114088372773723e-13</v>
+      </c>
+      <c r="F172">
+        <v>7.2364253659490347e-11</v>
+      </c>
+      <c r="G172">
+        <v>0.11845528152558954</v>
+      </c>
+      <c r="H172">
+        <v>0.0012255083467975841</v>
+      </c>
+      <c r="I172">
+        <v>0.0017333527744976317</v>
+      </c>
+      <c r="J172">
+        <v>0.00050848285352866939</v>
+      </c>
+      <c r="K172">
+        <v>0.5612830199116503</v>
+      </c>
+      <c r="L172">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>0.0030754860973124074</v>
+      </c>
+      <c r="C173">
+        <v>0.20249494123769757</v>
+      </c>
+      <c r="D173">
+        <v>0.078676599889797569</v>
+      </c>
+      <c r="E173">
+        <v>1.8117092721498751e-13</v>
+      </c>
+      <c r="F173">
+        <v>3.0945705571309716e-07</v>
+      </c>
+      <c r="G173">
+        <v>0.039533943647551528</v>
+      </c>
+      <c r="H173">
+        <v>0.00033311411014357647</v>
+      </c>
+      <c r="I173">
+        <v>9.6382853566115332e-07</v>
+      </c>
+      <c r="J173">
+        <v>1.8604875719976025e-07</v>
+      </c>
+      <c r="K173">
+        <v>0.67588445568296773</v>
+      </c>
+      <c r="L173">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B174">
         <v>0.00077570865796918311</v>
       </c>
-      <c r="C135">
+      <c r="C174">
         <v>0.04422966529835106</v>
       </c>
-      <c r="D135">
+      <c r="D174">
         <v>0.0041763626975202467</v>
       </c>
-      <c r="E135">
+      <c r="E174">
         <v>3.8390605091385742e-14</v>
       </c>
-      <c r="F135">
+      <c r="F174">
         <v>1.2268214322389736e-07</v>
       </c>
-      <c r="G135">
+      <c r="G174">
         <v>0.0059702501589935101</v>
       </c>
-      <c r="H135">
+      <c r="H174">
         <v>8.0812441534750857e-06</v>
       </c>
-      <c r="I135">
+      <c r="I174">
         <v>2.879730358653548e-07</v>
       </c>
-      <c r="J135">
+      <c r="J174">
         <v>1.6986186598146444e-08</v>
       </c>
-      <c r="K135">
+      <c r="K174">
         <v>0.94483950430160846</v>
       </c>
-      <c r="L135">
+      <c r="L174">
         <v>10</v>
       </c>
     </row>
